--- a/Arm Position Spreadsheet.xlsx
+++ b/Arm Position Spreadsheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\snobotics\Arm Dynamics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\981LabViewComponents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -539,6 +539,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2738,7 +2741,7 @@
     <mergeCell ref="H10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Arm Position Spreadsheet.xlsx
+++ b/Arm Position Spreadsheet.xlsx
@@ -545,7 +545,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>13</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
       </c>
       <c r="B8">
         <f>$B$6-$B$3</f>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
       </c>
       <c r="B9">
         <f>$B$6-$B$3+$B$7</f>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -691,11 +691,11 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ref="B13:B30" si="0">COS(RADIANS($A13)) * $B$1</f>
-        <v>12.678547852220984</v>
+        <v>11.410693066998885</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ref="C13:C62" si="1">COS(RADIANS($A13)) * ($B$1 + $B$2)</f>
-        <v>22.82138613399777</v>
+        <v>21.553531348775671</v>
       </c>
       <c r="D13" s="2">
         <f>COS(RADIANS($A13+$B$4)) * $B$5</f>
@@ -703,27 +703,27 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" ref="E13" si="2">B13+D13</f>
-        <v>22.075474060080069</v>
+        <v>20.80761927485797</v>
       </c>
       <c r="F13" s="16">
         <f>E13-($B$8-$B$3)</f>
-        <v>-2.9245259399199313</v>
+        <v>-0.19238072514202997</v>
       </c>
       <c r="G13" s="15">
         <f>E13-($B$7+$B$8-$B$3)</f>
-        <v>-18.924525939919931</v>
+        <v>-16.19238072514203</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" ref="H13" si="3">C13+D13</f>
-        <v>32.218312341856858</v>
+        <v>30.950457556634756</v>
       </c>
       <c r="I13" s="10">
         <f>H13-($B$8-$B$3)</f>
-        <v>7.2183123418568584</v>
+        <v>9.9504575566347562</v>
       </c>
       <c r="J13" s="15">
         <f>H13-($B$7+$B$8-$B$3)</f>
-        <v>-8.7816876581431416</v>
+        <v>-6.0495424433652438</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -732,11 +732,11 @@
       </c>
       <c r="B14" s="2">
         <f>COS(RADIANS($A14)) * $B$1</f>
-        <v>15.000000000000004</v>
+        <v>13.500000000000004</v>
       </c>
       <c r="C14" s="2">
         <f>COS(RADIANS($A14)) * ($B$1 + $B$2)</f>
-        <v>27.000000000000007</v>
+        <v>25.500000000000007</v>
       </c>
       <c r="D14" s="2">
         <f>COS(RADIANS($A14+$B$4)) * $B$5</f>
@@ -744,27 +744,27 @@
       </c>
       <c r="E14" s="9">
         <f>B14+D14</f>
-        <v>24.659258262890688</v>
+        <v>23.159258262890688</v>
       </c>
       <c r="F14" s="16">
         <f t="shared" ref="F14:F62" si="4">E14-($B$8-$B$3)</f>
-        <v>-0.34074173710931177</v>
+        <v>2.1592582628906882</v>
       </c>
       <c r="G14" s="15">
         <f t="shared" ref="G14:G62" si="5">E14-($B$7+$B$8-$B$3)</f>
-        <v>-16.340741737109312</v>
+        <v>-13.840741737109312</v>
       </c>
       <c r="H14" s="9">
         <f>C14+D14</f>
-        <v>36.659258262890688</v>
+        <v>35.159258262890688</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" ref="I14:I62" si="6">H14-($B$8-$B$3)</f>
-        <v>11.659258262890688</v>
+        <v>14.159258262890688</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" ref="J14:J62" si="7">H14-($B$7+$B$8-$B$3)</f>
-        <v>-4.3407417371093118</v>
+        <v>-1.8407417371093118</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -773,11 +773,11 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>17.207293090531383</v>
+        <v>15.486563781478246</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>30.973127562956492</v>
+        <v>29.252398253903355</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:D62" si="8">COS(RADIANS($A15+$B$4)) * $B$5</f>
@@ -785,27 +785,27 @@
       </c>
       <c r="E15" s="9">
         <f t="shared" ref="E15:E26" si="9">B15+D15</f>
-        <v>27.055370620653463</v>
+        <v>25.334641311600326</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="4"/>
-        <v>2.0553706206534628</v>
+        <v>4.3346413116003255</v>
       </c>
       <c r="G15" s="15">
         <f t="shared" si="5"/>
-        <v>-13.944629379346537</v>
+        <v>-11.665358688399674</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" ref="H15:H26" si="10">C15+D15</f>
-        <v>40.821205093078575</v>
+        <v>39.100475784025434</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" si="6"/>
-        <v>15.821205093078575</v>
+        <v>18.100475784025434</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="7"/>
-        <v>-0.17879490692142497</v>
+        <v>2.1004757840254342</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -814,11 +814,11 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>19.28362829059618</v>
+        <v>17.355265461536561</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>34.710530923073122</v>
+        <v>32.782168094013507</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="8"/>
@@ -826,27 +826,27 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" si="9"/>
-        <v>29.245575271513637</v>
+        <v>27.317212442454014</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="4"/>
-        <v>4.245575271513637</v>
+        <v>6.3172124424540144</v>
       </c>
       <c r="G16" s="15">
         <f t="shared" si="5"/>
-        <v>-11.754424728486363</v>
+        <v>-9.6827875575459856</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="10"/>
-        <v>44.672477903990575</v>
+        <v>42.74411507493096</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="6"/>
-        <v>19.672477903990575</v>
+        <v>21.74411507493096</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="7"/>
-        <v>3.6724779039905755</v>
+        <v>5.74411507493096</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -855,11 +855,11 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>21.213203435596427</v>
+        <v>19.091883092036785</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>38.183766184073569</v>
+        <v>36.062445840513924</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="8"/>
@@ -867,27 +867,27 @@
       </c>
       <c r="E17" s="9">
         <f t="shared" si="9"/>
-        <v>31.213203435596427</v>
+        <v>29.091883092036785</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="4"/>
-        <v>6.2132034355964265</v>
+        <v>8.0918830920367846</v>
       </c>
       <c r="G17" s="15">
         <f t="shared" si="5"/>
-        <v>-9.7867965644035735</v>
+        <v>-7.9081169079632154</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="10"/>
-        <v>48.183766184073569</v>
+        <v>46.062445840513924</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="6"/>
-        <v>23.183766184073569</v>
+        <v>25.062445840513924</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="7"/>
-        <v>7.1837661840735691</v>
+        <v>9.0624458405139237</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -896,11 +896,11 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>22.981333293569339</v>
+        <v>20.683199964212406</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>41.366399928424812</v>
+        <v>39.068266599067876</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="8"/>
@@ -908,27 +908,27 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" si="9"/>
-        <v>32.943280274486796</v>
+        <v>30.645146945129859</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="4"/>
-        <v>7.9432802744867956</v>
+        <v>9.6451469451298593</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="5"/>
-        <v>-8.0567197255132044</v>
+        <v>-6.3548530548701407</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" si="10"/>
-        <v>51.328346909342265</v>
+        <v>49.030213579985329</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="6"/>
-        <v>26.328346909342265</v>
+        <v>28.030213579985329</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="7"/>
-        <v>10.328346909342265</v>
+        <v>12.030213579985329</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -937,11 +937,11 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>24.574561328669756</v>
+        <v>22.117105195802779</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>44.234210391605558</v>
+        <v>41.776754258738585</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="8"/>
@@ -949,27 +949,27 @@
       </c>
       <c r="E19" s="9">
         <f t="shared" si="9"/>
-        <v>34.422638858791835</v>
+        <v>31.965182725924858</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="4"/>
-        <v>9.422638858791835</v>
+        <v>10.965182725924858</v>
       </c>
       <c r="G19" s="15">
         <f t="shared" si="5"/>
-        <v>-6.577361141208165</v>
+        <v>-5.0348172740751416</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="10"/>
-        <v>54.082287921727641</v>
+        <v>51.624831788860661</v>
       </c>
       <c r="I19" s="10">
         <f t="shared" si="6"/>
-        <v>29.082287921727641</v>
+        <v>30.624831788860661</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="7"/>
-        <v>13.082287921727641</v>
+        <v>14.624831788860661</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -978,11 +978,11 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>25.98076211353316</v>
+        <v>23.382685902179844</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>46.765371804359688</v>
+        <v>44.167295593006372</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="8"/>
@@ -990,27 +990,27 @@
       </c>
       <c r="E20" s="9">
         <f t="shared" si="9"/>
-        <v>35.640020376423841</v>
+        <v>33.041944165070525</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="4"/>
-        <v>10.640020376423841</v>
+        <v>12.041944165070525</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="5"/>
-        <v>-5.3599796235761588</v>
+        <v>-3.9580558349294748</v>
       </c>
       <c r="H20" s="9">
         <f t="shared" si="10"/>
-        <v>56.424630067250369</v>
+        <v>53.826553855897053</v>
       </c>
       <c r="I20" s="10">
         <f t="shared" si="6"/>
-        <v>31.424630067250369</v>
+        <v>32.826553855897053</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="7"/>
-        <v>15.424630067250369</v>
+        <v>16.826553855897053</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1019,11 +1019,11 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>27.1892336110995</v>
+        <v>24.470310249989549</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>48.940620499979097</v>
+        <v>46.221697138869146</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="8"/>
@@ -1031,27 +1031,27 @@
       </c>
       <c r="E21" s="9">
         <f t="shared" si="9"/>
-        <v>36.586159818958585</v>
+        <v>33.867236457848634</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="4"/>
-        <v>11.586159818958585</v>
+        <v>12.867236457848634</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="5"/>
-        <v>-4.4138401810414152</v>
+        <v>-3.1327635421513662</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" si="10"/>
-        <v>58.337546707838186</v>
+        <v>55.618623346728228</v>
       </c>
       <c r="I21" s="10">
         <f t="shared" si="6"/>
-        <v>33.337546707838186</v>
+        <v>34.618623346728228</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="7"/>
-        <v>17.337546707838186</v>
+        <v>18.618623346728228</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1060,11 +1060,11 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>28.190778623577252</v>
+        <v>25.371700761219529</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>50.743401522439058</v>
+        <v>47.924323660081328</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="8"/>
@@ -1072,27 +1072,27 @@
       </c>
       <c r="E22" s="9">
         <f t="shared" si="9"/>
-        <v>37.253856493943751</v>
+        <v>34.434778631586028</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="4"/>
-        <v>12.253856493943751</v>
+        <v>13.434778631586028</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" si="5"/>
-        <v>-3.7461435060562494</v>
+        <v>-2.5652213684139724</v>
       </c>
       <c r="H22" s="9">
         <f t="shared" si="10"/>
-        <v>59.806479392805556</v>
+        <v>56.987401530447826</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" si="6"/>
-        <v>34.806479392805556</v>
+        <v>35.987401530447826</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="7"/>
-        <v>18.806479392805556</v>
+        <v>19.987401530447826</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>28.97777478867205</v>
+        <v>26.079997309804845</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>52.159994619609691</v>
+        <v>49.262217140742486</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="8"/>
@@ -1113,27 +1113,27 @@
       </c>
       <c r="E23" s="9">
         <f t="shared" si="9"/>
-        <v>37.63802882651644</v>
+        <v>34.740251347649235</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="4"/>
-        <v>12.63802882651644</v>
+        <v>13.740251347649235</v>
       </c>
       <c r="G23" s="15">
         <f t="shared" si="5"/>
-        <v>-3.3619711734835604</v>
+        <v>-2.2597486523507655</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="10"/>
-        <v>60.82024865745408</v>
+        <v>57.922471178586875</v>
       </c>
       <c r="I23" s="10">
         <f t="shared" si="6"/>
-        <v>35.82024865745408</v>
+        <v>36.922471178586875</v>
       </c>
       <c r="J23" s="11">
         <f t="shared" si="7"/>
-        <v>19.82024865745408</v>
+        <v>20.922471178586875</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1142,11 +1142,11 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>29.544232590366242</v>
+        <v>26.589809331329615</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>53.17961866265923</v>
+        <v>50.225195403622607</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="8"/>
@@ -1154,27 +1154,27 @@
       </c>
       <c r="E24" s="9">
         <f t="shared" si="9"/>
-        <v>37.735753033256159</v>
+        <v>34.781329774219529</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="4"/>
-        <v>12.735753033256159</v>
+        <v>13.781329774219529</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="5"/>
-        <v>-3.2642469667438405</v>
+        <v>-2.2186702257804711</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="10"/>
-        <v>61.371139105549148</v>
+        <v>58.416715846512524</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="6"/>
-        <v>36.371139105549148</v>
+        <v>37.416715846512524</v>
       </c>
       <c r="J24" s="11">
         <f t="shared" si="7"/>
-        <v>20.371139105549148</v>
+        <v>21.416715846512524</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1183,11 +1183,11 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>29.885840942752367</v>
+        <v>26.897256848477131</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>53.794513696954262</v>
+        <v>50.805929602679022</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="8"/>
@@ -1195,27 +1195,27 @@
       </c>
       <c r="E25" s="9">
         <f t="shared" si="9"/>
-        <v>37.546285373942148</v>
+        <v>34.557701279666908</v>
       </c>
       <c r="F25" s="10">
         <f t="shared" si="4"/>
-        <v>12.546285373942148</v>
+        <v>13.557701279666908</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="5"/>
-        <v>-3.4537146260578524</v>
+        <v>-2.4422987203330919</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="10"/>
-        <v>61.454958128144042</v>
+        <v>58.466374033868803</v>
       </c>
       <c r="I25" s="10">
         <f t="shared" si="6"/>
-        <v>36.454958128144042</v>
+        <v>37.466374033868803</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="7"/>
-        <v>20.454958128144042</v>
+        <v>21.466374033868803</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1224,11 +1224,11 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="8"/>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="E26" s="9">
         <f t="shared" si="9"/>
-        <v>37.071067811865476</v>
+        <v>34.071067811865476</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="4"/>
-        <v>12.071067811865476</v>
+        <v>13.071067811865476</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="5"/>
-        <v>-3.9289321881345245</v>
+        <v>-2.9289321881345245</v>
       </c>
       <c r="H26" s="9">
         <f t="shared" si="10"/>
-        <v>61.071067811865476</v>
+        <v>58.071067811865476</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="6"/>
-        <v>36.071067811865476</v>
+        <v>37.071067811865476</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" si="7"/>
-        <v>20.071067811865476</v>
+        <v>21.071067811865476</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1265,11 +1265,11 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>29.885840942752367</v>
+        <v>26.897256848477131</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>53.794513696954262</v>
+        <v>50.805929602679022</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="8"/>
@@ -1277,27 +1277,27 @@
       </c>
       <c r="E27" s="9">
         <f t="shared" ref="E27:E62" si="11">B27+D27</f>
-        <v>36.313717039617757</v>
+        <v>33.325132945342524</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="4"/>
-        <v>11.313717039617757</v>
+        <v>12.325132945342524</v>
       </c>
       <c r="G27" s="15">
         <f t="shared" si="5"/>
-        <v>-4.6862829603822433</v>
+        <v>-3.6748670546574758</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" ref="H27:H62" si="12">C27+D27</f>
-        <v>60.222389793819659</v>
+        <v>57.233805699544419</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="6"/>
-        <v>35.222389793819659</v>
+        <v>36.233805699544419</v>
       </c>
       <c r="J27" s="11">
         <f t="shared" si="7"/>
-        <v>19.222389793819659</v>
+        <v>20.233805699544419</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1306,11 +1306,11 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>29.544232590366242</v>
+        <v>26.589809331329615</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>53.17961866265923</v>
+        <v>50.225195403622607</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="8"/>
@@ -1318,27 +1318,27 @@
       </c>
       <c r="E28" s="9">
         <f t="shared" si="11"/>
-        <v>35.279996953876704</v>
+        <v>32.325573694840074</v>
       </c>
       <c r="F28" s="10">
         <f t="shared" si="4"/>
-        <v>10.279996953876704</v>
+        <v>11.325573694840074</v>
       </c>
       <c r="G28" s="15">
         <f t="shared" si="5"/>
-        <v>-5.7200030461232956</v>
+        <v>-4.6744263051599262</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="12"/>
-        <v>58.915383026169692</v>
+        <v>55.960959767133069</v>
       </c>
       <c r="I28" s="10">
         <f t="shared" si="6"/>
-        <v>33.915383026169692</v>
+        <v>34.960959767133069</v>
       </c>
       <c r="J28" s="11">
         <f t="shared" si="7"/>
-        <v>17.915383026169692</v>
+        <v>18.960959767133069</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1347,11 +1347,11 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>28.97777478867205</v>
+        <v>26.079997309804845</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>52.159994619609691</v>
+        <v>49.262217140742486</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="8"/>
@@ -1359,27 +1359,27 @@
       </c>
       <c r="E29" s="9">
         <f t="shared" si="11"/>
-        <v>33.97777478867205</v>
+        <v>31.079997309804845</v>
       </c>
       <c r="F29" s="10">
         <f t="shared" si="4"/>
-        <v>8.9777747886720505</v>
+        <v>10.079997309804845</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="5"/>
-        <v>-7.0222252113279495</v>
+        <v>-5.9200026901951546</v>
       </c>
       <c r="H29" s="9">
         <f t="shared" si="12"/>
-        <v>57.159994619609691</v>
+        <v>54.262217140742486</v>
       </c>
       <c r="I29" s="10">
         <f t="shared" si="6"/>
-        <v>32.159994619609691</v>
+        <v>33.262217140742486</v>
       </c>
       <c r="J29" s="11">
         <f t="shared" si="7"/>
-        <v>16.159994619609691</v>
+        <v>17.262217140742486</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>28.190778623577252</v>
+        <v>25.371700761219529</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>50.743401522439058</v>
+        <v>47.924323660081328</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="8"/>
@@ -1400,27 +1400,27 @@
       </c>
       <c r="E30" s="9">
         <f t="shared" si="11"/>
-        <v>32.41696124098425</v>
+        <v>29.597883378626523</v>
       </c>
       <c r="F30" s="10">
         <f t="shared" si="4"/>
-        <v>7.41696124098425</v>
+        <v>8.5978833786265234</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="5"/>
-        <v>-8.58303875901575</v>
+        <v>-7.4021166213734766</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="12"/>
-        <v>54.969584139846049</v>
+        <v>52.150506277488319</v>
       </c>
       <c r="I30" s="10">
         <f t="shared" si="6"/>
-        <v>29.969584139846049</v>
+        <v>31.150506277488319</v>
       </c>
       <c r="J30" s="11">
         <f t="shared" si="7"/>
-        <v>13.969584139846049</v>
+        <v>15.150506277488319</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1429,11 +1429,11 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" ref="B31:B62" si="13">COS(RADIANS($A31)) * $B$1</f>
-        <v>27.1892336110995</v>
+        <v>24.470310249989549</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>48.940620499979097</v>
+        <v>46.221697138869146</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="8"/>
@@ -1441,27 +1441,27 @@
       </c>
       <c r="E31" s="9">
         <f t="shared" si="11"/>
-        <v>30.609435044356189</v>
+        <v>27.890511683246238</v>
       </c>
       <c r="F31" s="10">
         <f t="shared" si="4"/>
-        <v>5.6094350443561893</v>
+        <v>6.8905116832462383</v>
       </c>
       <c r="G31" s="15">
         <f t="shared" si="5"/>
-        <v>-10.390564955643811</v>
+        <v>-9.1094883167537617</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" si="12"/>
-        <v>52.360821933235783</v>
+        <v>49.641898572125832</v>
       </c>
       <c r="I31" s="10">
         <f t="shared" si="6"/>
-        <v>27.360821933235783</v>
+        <v>28.641898572125832</v>
       </c>
       <c r="J31" s="11">
         <f t="shared" si="7"/>
-        <v>11.360821933235783</v>
+        <v>12.641898572125832</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1470,11 +1470,11 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="13"/>
-        <v>25.98076211353316</v>
+        <v>23.382685902179844</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
-        <v>46.765371804359688</v>
+        <v>44.167295593006372</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="8"/>
@@ -1482,27 +1482,27 @@
       </c>
       <c r="E32" s="9">
         <f t="shared" si="11"/>
-        <v>28.568952564558366</v>
+        <v>25.97087635320505</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="4"/>
-        <v>3.5689525645583657</v>
+        <v>4.9708763532050497</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="5"/>
-        <v>-12.431047435441634</v>
+        <v>-11.02912364679495</v>
       </c>
       <c r="H32" s="9">
         <f t="shared" si="12"/>
-        <v>49.353562255384894</v>
+        <v>46.755486044031578</v>
       </c>
       <c r="I32" s="10">
         <f t="shared" si="6"/>
-        <v>24.353562255384894</v>
+        <v>25.755486044031578</v>
       </c>
       <c r="J32" s="11">
         <f t="shared" si="7"/>
-        <v>8.3535622553848938</v>
+        <v>9.7554860440315778</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1511,11 +1511,11 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="13"/>
-        <v>24.574561328669756</v>
+        <v>22.117105195802779</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="1"/>
-        <v>44.234210391605558</v>
+        <v>41.776754258738585</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="8"/>
@@ -1523,27 +1523,27 @@
       </c>
       <c r="E33" s="9">
         <f t="shared" si="11"/>
-        <v>26.31104310533906</v>
+        <v>23.853586972472083</v>
       </c>
       <c r="F33" s="10">
         <f t="shared" si="4"/>
-        <v>1.3110431053390599</v>
+        <v>2.8535869724720833</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="5"/>
-        <v>-14.68895689466094</v>
+        <v>-13.146413027527917</v>
       </c>
       <c r="H33" s="9">
         <f t="shared" si="12"/>
-        <v>45.970692168274859</v>
+        <v>43.513236035407886</v>
       </c>
       <c r="I33" s="10">
         <f t="shared" si="6"/>
-        <v>20.970692168274859</v>
+        <v>22.513236035407886</v>
       </c>
       <c r="J33" s="11">
         <f t="shared" si="7"/>
-        <v>4.9706921682748586</v>
+        <v>6.5132360354078855</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" si="13"/>
-        <v>22.981333293569339</v>
+        <v>20.683199964212406</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="1"/>
-        <v>41.366399928424812</v>
+        <v>39.068266599067876</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="8"/>
@@ -1564,27 +1564,27 @@
       </c>
       <c r="E34" s="9">
         <f t="shared" si="11"/>
-        <v>23.85289072104592</v>
+        <v>21.554757391688987</v>
       </c>
       <c r="F34" s="10">
         <f t="shared" si="4"/>
-        <v>-1.1471092789540798</v>
+        <v>0.55475739168898741</v>
       </c>
       <c r="G34" s="15">
         <f t="shared" si="5"/>
-        <v>-17.14710927895408</v>
+        <v>-15.445242608311013</v>
       </c>
       <c r="H34" s="9">
         <f t="shared" si="12"/>
-        <v>42.237957355901393</v>
+        <v>39.939824026544457</v>
       </c>
       <c r="I34" s="10">
         <f t="shared" si="6"/>
-        <v>17.237957355901393</v>
+        <v>18.939824026544457</v>
       </c>
       <c r="J34" s="11">
         <f t="shared" si="7"/>
-        <v>1.2379573559013934</v>
+        <v>2.9398240265444571</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1593,11 +1593,11 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" si="13"/>
-        <v>21.213203435596427</v>
+        <v>19.091883092036785</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="1"/>
-        <v>38.183766184073569</v>
+        <v>36.062445840513924</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="8"/>
@@ -1605,27 +1605,27 @@
       </c>
       <c r="E35" s="9">
         <f t="shared" si="11"/>
-        <v>21.213203435596427</v>
+        <v>19.091883092036785</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" si="4"/>
-        <v>-3.7867965644035735</v>
+        <v>-1.9081169079632154</v>
       </c>
       <c r="G35" s="15">
         <f t="shared" si="5"/>
-        <v>-19.786796564403573</v>
+        <v>-17.908116907963215</v>
       </c>
       <c r="H35" s="9">
         <f t="shared" si="12"/>
-        <v>38.183766184073569</v>
+        <v>36.062445840513924</v>
       </c>
       <c r="I35" s="10">
         <f t="shared" si="6"/>
-        <v>13.183766184073569</v>
+        <v>15.062445840513924</v>
       </c>
       <c r="J35" s="11">
         <f t="shared" si="7"/>
-        <v>-2.8162338159264309</v>
+        <v>-0.93755415948607634</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" si="13"/>
-        <v>19.28362829059618</v>
+        <v>17.355265461536561</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="1"/>
-        <v>34.710530923073122</v>
+        <v>32.782168094013507</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="8"/>
@@ -1646,27 +1646,27 @@
       </c>
       <c r="E36" s="9">
         <f t="shared" si="11"/>
-        <v>18.412070863119599</v>
+        <v>16.48370803405998</v>
       </c>
       <c r="F36" s="10">
         <f t="shared" si="4"/>
-        <v>-6.5879291368804012</v>
+        <v>-4.5162919659400202</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" si="5"/>
-        <v>-22.587929136880401</v>
+        <v>-20.51629196594002</v>
       </c>
       <c r="H36" s="9">
         <f t="shared" si="12"/>
-        <v>33.838973495596541</v>
+        <v>31.910610666536925</v>
       </c>
       <c r="I36" s="10">
         <f t="shared" si="6"/>
-        <v>8.8389734955965409</v>
+        <v>10.910610666536925</v>
       </c>
       <c r="J36" s="11">
         <f t="shared" si="7"/>
-        <v>-7.1610265044034591</v>
+        <v>-5.0893893334630746</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1675,11 +1675,11 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" si="13"/>
-        <v>17.207293090531383</v>
+        <v>15.486563781478246</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="1"/>
-        <v>30.973127562956492</v>
+        <v>29.252398253903355</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="8"/>
@@ -1687,27 +1687,27 @@
       </c>
       <c r="E37" s="9">
         <f t="shared" si="11"/>
-        <v>15.470811313862081</v>
+        <v>13.750082004808943</v>
       </c>
       <c r="F37" s="10">
         <f t="shared" si="4"/>
-        <v>-9.5291886861379194</v>
+        <v>-7.2499179951910566</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="5"/>
-        <v>-25.529188686137921</v>
+        <v>-23.249917995191055</v>
       </c>
       <c r="H37" s="9">
         <f t="shared" si="12"/>
-        <v>29.236645786287188</v>
+        <v>27.51591647723405</v>
       </c>
       <c r="I37" s="10">
         <f t="shared" si="6"/>
-        <v>4.2366457862871876</v>
+        <v>6.5159164772340503</v>
       </c>
       <c r="J37" s="11">
         <f t="shared" si="7"/>
-        <v>-11.763354213712812</v>
+        <v>-9.4840835227659497</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1716,11 +1716,11 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" si="13"/>
-        <v>15.000000000000004</v>
+        <v>13.500000000000004</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="1"/>
-        <v>27.000000000000007</v>
+        <v>25.500000000000007</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="8"/>
@@ -1728,27 +1728,27 @@
       </c>
       <c r="E38" s="9">
         <f t="shared" si="11"/>
-        <v>12.411809548974794</v>
+        <v>10.911809548974794</v>
       </c>
       <c r="F38" s="10">
         <f t="shared" si="4"/>
-        <v>-12.588190451025206</v>
+        <v>-10.088190451025206</v>
       </c>
       <c r="G38" s="15">
         <f t="shared" si="5"/>
-        <v>-28.588190451025206</v>
+        <v>-26.088190451025206</v>
       </c>
       <c r="H38" s="9">
         <f t="shared" si="12"/>
-        <v>24.411809548974798</v>
+        <v>22.911809548974798</v>
       </c>
       <c r="I38" s="10">
         <f t="shared" si="6"/>
-        <v>-0.58819045102520207</v>
+        <v>1.9118095489747979</v>
       </c>
       <c r="J38" s="11">
         <f t="shared" si="7"/>
-        <v>-16.588190451025202</v>
+        <v>-14.088190451025202</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1757,11 +1757,11 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" si="13"/>
-        <v>12.678547852220984</v>
+        <v>11.410693066998885</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="1"/>
-        <v>22.82138613399777</v>
+        <v>21.553531348775671</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="8"/>
@@ -1769,27 +1769,27 @@
       </c>
       <c r="E39" s="9">
         <f t="shared" si="11"/>
-        <v>9.2583464189642974</v>
+        <v>7.9904916337421978</v>
       </c>
       <c r="F39" s="10">
         <f t="shared" si="4"/>
-        <v>-15.741653581035703</v>
+        <v>-13.009508366257801</v>
       </c>
       <c r="G39" s="15">
         <f t="shared" si="5"/>
-        <v>-31.741653581035703</v>
+        <v>-29.009508366257801</v>
       </c>
       <c r="H39" s="9">
         <f t="shared" si="12"/>
-        <v>19.401184700741084</v>
+        <v>18.133329915518985</v>
       </c>
       <c r="I39" s="10">
         <f t="shared" si="6"/>
-        <v>-5.5988152992589164</v>
+        <v>-2.8666700844810151</v>
       </c>
       <c r="J39" s="11">
         <f t="shared" si="7"/>
-        <v>-21.598815299258916</v>
+        <v>-18.866670084481015</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1798,11 +1798,11 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" si="13"/>
-        <v>10.260604299770065</v>
+        <v>9.2345438697930575</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="1"/>
-        <v>18.469087739586115</v>
+        <v>17.443027309609111</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="8"/>
@@ -1810,27 +1810,27 @@
       </c>
       <c r="E40" s="9">
         <f t="shared" si="11"/>
-        <v>6.0344216823630719</v>
+        <v>5.0083612523860639</v>
       </c>
       <c r="F40" s="10">
         <f t="shared" si="4"/>
-        <v>-18.965578317636929</v>
+        <v>-15.991638747613937</v>
       </c>
       <c r="G40" s="15">
         <f t="shared" si="5"/>
-        <v>-34.965578317636925</v>
+        <v>-31.991638747613937</v>
       </c>
       <c r="H40" s="9">
         <f t="shared" si="12"/>
-        <v>14.242905122179121</v>
+        <v>13.216844692202116</v>
       </c>
       <c r="I40" s="10">
         <f t="shared" si="6"/>
-        <v>-10.757094877820879</v>
+        <v>-7.7831553077978839</v>
       </c>
       <c r="J40" s="11">
         <f t="shared" si="7"/>
-        <v>-26.757094877820879</v>
+        <v>-23.783155307797884</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1839,11 +1839,11 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" si="13"/>
-        <v>7.7645713530756222</v>
+        <v>6.98811421776806</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="1"/>
-        <v>13.97622843553612</v>
+        <v>13.199771300228559</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="8"/>
@@ -1851,27 +1851,27 @@
       </c>
       <c r="E41" s="9">
         <f t="shared" si="11"/>
-        <v>2.764571353075624</v>
+        <v>1.9881142177680617</v>
       </c>
       <c r="F41" s="10">
         <f t="shared" si="4"/>
-        <v>-22.235428646924376</v>
+        <v>-19.011885782231939</v>
       </c>
       <c r="G41" s="15">
         <f t="shared" si="5"/>
-        <v>-38.235428646924376</v>
+        <v>-35.011885782231936</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="12"/>
-        <v>8.9762284355361217</v>
+        <v>8.1997713002285604</v>
       </c>
       <c r="I41" s="10">
         <f t="shared" si="6"/>
-        <v>-16.023771564463878</v>
+        <v>-12.80022869977144</v>
       </c>
       <c r="J41" s="11">
         <f t="shared" si="7"/>
-        <v>-32.023771564463878</v>
+        <v>-28.800228699771438</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1880,11 +1880,11 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" si="13"/>
-        <v>5.2094453300079122</v>
+        <v>4.6885007970071211</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="1"/>
-        <v>9.3770015940142422</v>
+        <v>8.8560570610134519</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="8"/>
@@ -1892,27 +1892,27 @@
       </c>
       <c r="E42" s="9">
         <f t="shared" si="11"/>
-        <v>-0.52631903350254916</v>
+        <v>-1.0472635665033403</v>
       </c>
       <c r="F42" s="10">
         <f t="shared" si="4"/>
-        <v>-25.526319033502549</v>
+        <v>-22.047263566503339</v>
       </c>
       <c r="G42" s="15">
         <f t="shared" si="5"/>
-        <v>-41.526319033502546</v>
+        <v>-38.047263566503339</v>
       </c>
       <c r="H42" s="9">
         <f t="shared" si="12"/>
-        <v>3.6412372305037808</v>
+        <v>3.1202926975029905</v>
       </c>
       <c r="I42" s="10">
         <f t="shared" si="6"/>
-        <v>-21.35876276949622</v>
+        <v>-17.87970730249701</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" si="7"/>
-        <v>-37.358762769496217</v>
+        <v>-33.87970730249701</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1921,11 +1921,11 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" si="13"/>
-        <v>2.6146722824297441</v>
+        <v>2.3532050541867697</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="1"/>
-        <v>4.7064101083735395</v>
+        <v>4.444942880130565</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="8"/>
@@ -1933,27 +1933,27 @@
       </c>
       <c r="E43" s="9">
         <f t="shared" si="11"/>
-        <v>-3.8132038144356493</v>
+        <v>-4.0746710426786237</v>
       </c>
       <c r="F43" s="10">
         <f t="shared" si="4"/>
-        <v>-28.813203814435649</v>
+        <v>-25.074671042678624</v>
       </c>
       <c r="G43" s="15">
         <f t="shared" si="5"/>
-        <v>-44.813203814435653</v>
+        <v>-41.074671042678624</v>
       </c>
       <c r="H43" s="9">
         <f t="shared" si="12"/>
-        <v>-1.7214659884918539</v>
+        <v>-1.9829332167348284</v>
       </c>
       <c r="I43" s="10">
         <f t="shared" si="6"/>
-        <v>-26.721465988491854</v>
+        <v>-22.982933216734828</v>
       </c>
       <c r="J43" s="11">
         <f t="shared" si="7"/>
-        <v>-42.721465988491858</v>
+        <v>-38.982933216734828</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1962,11 +1962,11 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" si="13"/>
-        <v>1.83772268236293E-15</v>
+        <v>1.653950414126637E-15</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="1"/>
-        <v>3.307900828253274E-15</v>
+        <v>3.124128560016981E-15</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="8"/>
@@ -1978,11 +1978,11 @@
       </c>
       <c r="F44" s="10">
         <f t="shared" si="4"/>
-        <v>-32.071067811865476</v>
+        <v>-28.071067811865472</v>
       </c>
       <c r="G44" s="11">
         <f t="shared" si="5"/>
-        <v>-48.071067811865476</v>
+        <v>-44.071067811865476</v>
       </c>
       <c r="H44" s="9">
         <f t="shared" si="12"/>
@@ -1990,11 +1990,11 @@
       </c>
       <c r="I44" s="10">
         <f t="shared" si="6"/>
-        <v>-32.071067811865468</v>
+        <v>-28.071067811865472</v>
       </c>
       <c r="J44" s="11">
         <f t="shared" si="7"/>
-        <v>-48.071067811865468</v>
+        <v>-44.071067811865468</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2003,11 +2003,11 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" si="13"/>
-        <v>-2.6146722824297473</v>
+        <v>-2.3532050541867724</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="1"/>
-        <v>-4.7064101083735448</v>
+        <v>-4.4449428801305704</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="8"/>
@@ -2015,27 +2015,27 @@
       </c>
       <c r="E45" s="9">
         <f t="shared" si="11"/>
-        <v>-10.275116713619527</v>
+        <v>-10.013649485376551</v>
       </c>
       <c r="F45" s="10">
         <f t="shared" si="4"/>
-        <v>-35.275116713619525</v>
+        <v>-31.013649485376551</v>
       </c>
       <c r="G45" s="11">
         <f t="shared" si="5"/>
-        <v>-51.275116713619525</v>
+        <v>-47.013649485376547</v>
       </c>
       <c r="H45" s="9">
         <f t="shared" si="12"/>
-        <v>-12.366854539563324</v>
+        <v>-12.105387311320349</v>
       </c>
       <c r="I45" s="10">
         <f t="shared" si="6"/>
-        <v>-37.36685453956332</v>
+        <v>-33.105387311320349</v>
       </c>
       <c r="J45" s="11">
         <f t="shared" si="7"/>
-        <v>-53.36685453956332</v>
+        <v>-49.105387311320349</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2044,11 +2044,11 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" si="13"/>
-        <v>-5.2094453300079095</v>
+        <v>-4.6885007970071184</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="1"/>
-        <v>-9.3770015940142368</v>
+        <v>-8.8560570610134448</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="8"/>
@@ -2056,27 +2056,27 @@
       </c>
       <c r="E46" s="9">
         <f t="shared" si="11"/>
-        <v>-13.400965772897829</v>
+        <v>-12.880021239897037</v>
       </c>
       <c r="F46" s="10">
         <f t="shared" si="4"/>
-        <v>-38.400965772897827</v>
+        <v>-33.880021239897033</v>
       </c>
       <c r="G46" s="11">
         <f t="shared" si="5"/>
-        <v>-54.400965772897827</v>
+        <v>-49.880021239897033</v>
       </c>
       <c r="H46" s="9">
         <f t="shared" si="12"/>
-        <v>-17.568522036904156</v>
+        <v>-17.047577503903362</v>
       </c>
       <c r="I46" s="10">
         <f t="shared" si="6"/>
-        <v>-42.568522036904156</v>
+        <v>-38.047577503903362</v>
       </c>
       <c r="J46" s="11">
         <f t="shared" si="7"/>
-        <v>-58.568522036904156</v>
+        <v>-54.047577503903362</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" si="13"/>
-        <v>-7.7645713530756257</v>
+        <v>-6.9881142177680626</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" si="1"/>
-        <v>-13.976228435536125</v>
+        <v>-13.199771300228564</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="8"/>
@@ -2097,27 +2097,27 @@
       </c>
       <c r="E47" s="9">
         <f t="shared" si="11"/>
-        <v>-16.424825390920013</v>
+        <v>-15.64836825561245</v>
       </c>
       <c r="F47" s="10">
         <f t="shared" si="4"/>
-        <v>-41.424825390920013</v>
+        <v>-36.648368255612453</v>
       </c>
       <c r="G47" s="11">
         <f t="shared" si="5"/>
-        <v>-57.424825390920013</v>
+        <v>-52.648368255612453</v>
       </c>
       <c r="H47" s="9">
         <f t="shared" si="12"/>
-        <v>-22.636482473380511</v>
+        <v>-21.860025338072951</v>
       </c>
       <c r="I47" s="10">
         <f t="shared" si="6"/>
-        <v>-47.636482473380511</v>
+        <v>-42.860025338072951</v>
       </c>
       <c r="J47" s="11">
         <f t="shared" si="7"/>
-        <v>-63.636482473380511</v>
+        <v>-58.860025338072951</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2126,11 +2126,11 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" si="13"/>
-        <v>-10.260604299770062</v>
+        <v>-9.2345438697930557</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" si="1"/>
-        <v>-18.469087739586111</v>
+        <v>-17.443027309609104</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="8"/>
@@ -2138,27 +2138,27 @@
       </c>
       <c r="E48" s="9">
         <f t="shared" si="11"/>
-        <v>-19.323682170136561</v>
+        <v>-18.297621740159556</v>
       </c>
       <c r="F48" s="10">
         <f t="shared" si="4"/>
-        <v>-44.323682170136564</v>
+        <v>-39.297621740159556</v>
       </c>
       <c r="G48" s="11">
         <f t="shared" si="5"/>
-        <v>-60.323682170136564</v>
+        <v>-55.297621740159556</v>
       </c>
       <c r="H48" s="9">
         <f t="shared" si="12"/>
-        <v>-27.53216560995261</v>
+        <v>-26.506105179975602</v>
       </c>
       <c r="I48" s="10">
         <f t="shared" si="6"/>
-        <v>-52.532165609952614</v>
+        <v>-47.506105179975606</v>
       </c>
       <c r="J48" s="11">
         <f t="shared" si="7"/>
-        <v>-68.532165609952614</v>
+        <v>-63.506105179975606</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" si="13"/>
-        <v>-12.67854785222098</v>
+        <v>-11.410693066998881</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" si="1"/>
-        <v>-22.821386133997763</v>
+        <v>-21.553531348775667</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="8"/>
@@ -2179,27 +2179,27 @@
       </c>
       <c r="E49" s="9">
         <f t="shared" si="11"/>
-        <v>-22.075474060080062</v>
+        <v>-20.807619274857963</v>
       </c>
       <c r="F49" s="10">
         <f t="shared" si="4"/>
-        <v>-47.075474060080062</v>
+        <v>-41.807619274857963</v>
       </c>
       <c r="G49" s="11">
         <f t="shared" si="5"/>
-        <v>-63.075474060080062</v>
+        <v>-57.807619274857963</v>
       </c>
       <c r="H49" s="9">
         <f t="shared" si="12"/>
-        <v>-32.218312341856844</v>
+        <v>-30.950457556634753</v>
       </c>
       <c r="I49" s="10">
         <f t="shared" si="6"/>
-        <v>-57.218312341856844</v>
+        <v>-51.950457556634753</v>
       </c>
       <c r="J49" s="11">
         <f t="shared" si="7"/>
-        <v>-73.218312341856844</v>
+        <v>-67.950457556634746</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2208,11 +2208,11 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" si="13"/>
-        <v>-14.999999999999993</v>
+        <v>-13.499999999999995</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="1"/>
-        <v>-26.999999999999989</v>
+        <v>-25.499999999999989</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="8"/>
@@ -2220,27 +2220,27 @@
       </c>
       <c r="E50" s="9">
         <f t="shared" si="11"/>
-        <v>-24.659258262890674</v>
+        <v>-23.159258262890674</v>
       </c>
       <c r="F50" s="10">
         <f t="shared" si="4"/>
-        <v>-49.659258262890674</v>
+        <v>-44.159258262890674</v>
       </c>
       <c r="G50" s="11">
         <f t="shared" si="5"/>
-        <v>-65.659258262890674</v>
+        <v>-60.159258262890674</v>
       </c>
       <c r="H50" s="9">
         <f t="shared" si="12"/>
-        <v>-36.659258262890674</v>
+        <v>-35.159258262890674</v>
       </c>
       <c r="I50" s="10">
         <f t="shared" si="6"/>
-        <v>-61.659258262890674</v>
+        <v>-56.159258262890674</v>
       </c>
       <c r="J50" s="11">
         <f t="shared" si="7"/>
-        <v>-77.659258262890674</v>
+        <v>-72.159258262890674</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2249,11 +2249,11 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" si="13"/>
-        <v>-17.207293090531383</v>
+        <v>-15.486563781478246</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" si="1"/>
-        <v>-30.973127562956492</v>
+        <v>-29.252398253903355</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" si="8"/>
@@ -2261,27 +2261,27 @@
       </c>
       <c r="E51" s="9">
         <f t="shared" si="11"/>
-        <v>-27.055370620653463</v>
+        <v>-25.334641311600326</v>
       </c>
       <c r="F51" s="10">
         <f t="shared" si="4"/>
-        <v>-52.055370620653463</v>
+        <v>-46.334641311600322</v>
       </c>
       <c r="G51" s="11">
         <f t="shared" si="5"/>
-        <v>-68.055370620653463</v>
+        <v>-62.334641311600322</v>
       </c>
       <c r="H51" s="9">
         <f t="shared" si="12"/>
-        <v>-40.821205093078575</v>
+        <v>-39.100475784025434</v>
       </c>
       <c r="I51" s="10">
         <f t="shared" si="6"/>
-        <v>-65.821205093078575</v>
+        <v>-60.100475784025434</v>
       </c>
       <c r="J51" s="11">
         <f t="shared" si="7"/>
-        <v>-81.821205093078575</v>
+        <v>-76.100475784025434</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2290,11 +2290,11 @@
       </c>
       <c r="B52" s="2">
         <f t="shared" si="13"/>
-        <v>-19.28362829059618</v>
+        <v>-17.355265461536561</v>
       </c>
       <c r="C52" s="2">
         <f t="shared" si="1"/>
-        <v>-34.710530923073122</v>
+        <v>-32.782168094013507</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="8"/>
@@ -2302,27 +2302,27 @@
       </c>
       <c r="E52" s="9">
         <f t="shared" si="11"/>
-        <v>-29.245575271513637</v>
+        <v>-27.317212442454014</v>
       </c>
       <c r="F52" s="10">
         <f t="shared" si="4"/>
-        <v>-54.245575271513637</v>
+        <v>-48.317212442454014</v>
       </c>
       <c r="G52" s="11">
         <f t="shared" si="5"/>
-        <v>-70.245575271513644</v>
+        <v>-64.317212442454007</v>
       </c>
       <c r="H52" s="9">
         <f t="shared" si="12"/>
-        <v>-44.672477903990575</v>
+        <v>-42.74411507493096</v>
       </c>
       <c r="I52" s="10">
         <f t="shared" si="6"/>
-        <v>-69.672477903990568</v>
+        <v>-63.74411507493096</v>
       </c>
       <c r="J52" s="11">
         <f t="shared" si="7"/>
-        <v>-85.672477903990568</v>
+        <v>-79.74411507493096</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2331,11 +2331,11 @@
       </c>
       <c r="B53" s="2">
         <f t="shared" si="13"/>
-        <v>-21.213203435596423</v>
+        <v>-19.091883092036781</v>
       </c>
       <c r="C53" s="2">
         <f t="shared" si="1"/>
-        <v>-38.183766184073562</v>
+        <v>-36.062445840513924</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="8"/>
@@ -2343,27 +2343,27 @@
       </c>
       <c r="E53" s="9">
         <f t="shared" si="11"/>
-        <v>-31.213203435596423</v>
+        <v>-29.091883092036781</v>
       </c>
       <c r="F53" s="10">
         <f t="shared" si="4"/>
-        <v>-56.213203435596427</v>
+        <v>-50.091883092036781</v>
       </c>
       <c r="G53" s="11">
         <f t="shared" si="5"/>
-        <v>-72.213203435596427</v>
+        <v>-66.091883092036781</v>
       </c>
       <c r="H53" s="9">
         <f t="shared" si="12"/>
-        <v>-48.183766184073562</v>
+        <v>-46.062445840513924</v>
       </c>
       <c r="I53" s="10">
         <f t="shared" si="6"/>
-        <v>-73.183766184073562</v>
+        <v>-67.062445840513931</v>
       </c>
       <c r="J53" s="11">
         <f t="shared" si="7"/>
-        <v>-89.183766184073562</v>
+        <v>-83.062445840513931</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2372,11 +2372,11 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" si="13"/>
-        <v>-22.981333293569335</v>
+        <v>-20.683199964212402</v>
       </c>
       <c r="C54" s="2">
         <f t="shared" si="1"/>
-        <v>-41.366399928424805</v>
+        <v>-39.068266599067876</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="8"/>
@@ -2384,27 +2384,27 @@
       </c>
       <c r="E54" s="9">
         <f t="shared" si="11"/>
-        <v>-32.943280274486789</v>
+        <v>-30.645146945129859</v>
       </c>
       <c r="F54" s="10">
         <f t="shared" si="4"/>
-        <v>-57.943280274486789</v>
+        <v>-51.645146945129859</v>
       </c>
       <c r="G54" s="11">
         <f t="shared" si="5"/>
-        <v>-73.943280274486796</v>
+        <v>-67.645146945129852</v>
       </c>
       <c r="H54" s="9">
         <f t="shared" si="12"/>
-        <v>-51.328346909342258</v>
+        <v>-49.030213579985329</v>
       </c>
       <c r="I54" s="10">
         <f t="shared" si="6"/>
-        <v>-76.328346909342258</v>
+        <v>-70.030213579985329</v>
       </c>
       <c r="J54" s="11">
         <f t="shared" si="7"/>
-        <v>-92.328346909342258</v>
+        <v>-86.030213579985329</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2413,11 +2413,11 @@
       </c>
       <c r="B55" s="2">
         <f t="shared" si="13"/>
-        <v>-24.574561328669759</v>
+        <v>-22.117105195802782</v>
       </c>
       <c r="C55" s="2">
         <f t="shared" si="1"/>
-        <v>-44.234210391605565</v>
+        <v>-41.776754258738585</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="8"/>
@@ -2425,27 +2425,27 @@
       </c>
       <c r="E55" s="9">
         <f t="shared" si="11"/>
-        <v>-34.422638858791842</v>
+        <v>-31.965182725924862</v>
       </c>
       <c r="F55" s="10">
         <f t="shared" si="4"/>
-        <v>-59.422638858791842</v>
+        <v>-52.965182725924862</v>
       </c>
       <c r="G55" s="11">
         <f t="shared" si="5"/>
-        <v>-75.422638858791842</v>
+        <v>-68.965182725924862</v>
       </c>
       <c r="H55" s="9">
         <f t="shared" si="12"/>
-        <v>-54.082287921727641</v>
+        <v>-51.624831788860661</v>
       </c>
       <c r="I55" s="10">
         <f t="shared" si="6"/>
-        <v>-79.082287921727641</v>
+        <v>-72.624831788860661</v>
       </c>
       <c r="J55" s="11">
         <f t="shared" si="7"/>
-        <v>-95.082287921727641</v>
+        <v>-88.624831788860661</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2454,11 +2454,11 @@
       </c>
       <c r="B56" s="2">
         <f t="shared" si="13"/>
-        <v>-25.98076211353316</v>
+        <v>-23.382685902179844</v>
       </c>
       <c r="C56" s="2">
         <f t="shared" si="1"/>
-        <v>-46.765371804359688</v>
+        <v>-44.167295593006372</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="8"/>
@@ -2466,27 +2466,27 @@
       </c>
       <c r="E56" s="9">
         <f t="shared" si="11"/>
-        <v>-35.640020376423841</v>
+        <v>-33.041944165070525</v>
       </c>
       <c r="F56" s="10">
         <f t="shared" si="4"/>
-        <v>-60.640020376423841</v>
+        <v>-54.041944165070525</v>
       </c>
       <c r="G56" s="11">
         <f t="shared" si="5"/>
-        <v>-76.640020376423848</v>
+        <v>-70.041944165070532</v>
       </c>
       <c r="H56" s="9">
         <f t="shared" si="12"/>
-        <v>-56.424630067250369</v>
+        <v>-53.826553855897053</v>
       </c>
       <c r="I56" s="10">
         <f t="shared" si="6"/>
-        <v>-81.424630067250376</v>
+        <v>-74.82655385589706</v>
       </c>
       <c r="J56" s="11">
         <f t="shared" si="7"/>
-        <v>-97.424630067250376</v>
+        <v>-90.82655385589706</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2495,11 +2495,11 @@
       </c>
       <c r="B57" s="2">
         <f t="shared" si="13"/>
-        <v>-27.1892336110995</v>
+        <v>-24.470310249989549</v>
       </c>
       <c r="C57" s="2">
         <f t="shared" si="1"/>
-        <v>-48.940620499979097</v>
+        <v>-46.221697138869146</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="8"/>
@@ -2507,27 +2507,27 @@
       </c>
       <c r="E57" s="9">
         <f t="shared" si="11"/>
-        <v>-36.586159818958585</v>
+        <v>-33.867236457848634</v>
       </c>
       <c r="F57" s="10">
         <f t="shared" si="4"/>
-        <v>-61.586159818958585</v>
+        <v>-54.867236457848634</v>
       </c>
       <c r="G57" s="11">
         <f t="shared" si="5"/>
-        <v>-77.586159818958578</v>
+        <v>-70.867236457848634</v>
       </c>
       <c r="H57" s="9">
         <f t="shared" si="12"/>
-        <v>-58.337546707838186</v>
+        <v>-55.618623346728228</v>
       </c>
       <c r="I57" s="10">
         <f t="shared" si="6"/>
-        <v>-83.337546707838186</v>
+        <v>-76.618623346728228</v>
       </c>
       <c r="J57" s="11">
         <f t="shared" si="7"/>
-        <v>-99.337546707838186</v>
+        <v>-92.618623346728228</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2536,11 +2536,11 @@
       </c>
       <c r="B58" s="2">
         <f t="shared" si="13"/>
-        <v>-28.190778623577248</v>
+        <v>-25.371700761219525</v>
       </c>
       <c r="C58" s="2">
         <f t="shared" si="1"/>
-        <v>-50.743401522439051</v>
+        <v>-47.924323660081328</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="8"/>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="E58" s="9">
         <f t="shared" si="11"/>
-        <v>-37.253856493943751</v>
+        <v>-34.434778631586028</v>
       </c>
       <c r="F58" s="10">
         <f t="shared" si="4"/>
-        <v>-62.253856493943751</v>
+        <v>-55.434778631586028</v>
       </c>
       <c r="G58" s="11">
         <f t="shared" si="5"/>
-        <v>-78.253856493943744</v>
+        <v>-71.434778631586028</v>
       </c>
       <c r="H58" s="9">
         <f t="shared" si="12"/>
-        <v>-59.806479392805549</v>
+        <v>-56.987401530447826</v>
       </c>
       <c r="I58" s="10">
         <f t="shared" si="6"/>
-        <v>-84.806479392805556</v>
+        <v>-77.987401530447826</v>
       </c>
       <c r="J58" s="11">
         <f t="shared" si="7"/>
-        <v>-100.80647939280556</v>
+        <v>-93.987401530447826</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2577,11 +2577,11 @@
       </c>
       <c r="B59" s="2">
         <f t="shared" si="13"/>
-        <v>-28.977774788672047</v>
+        <v>-26.079997309804842</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" si="1"/>
-        <v>-52.159994619609684</v>
+        <v>-49.262217140742479</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" si="8"/>
@@ -2589,27 +2589,27 @@
       </c>
       <c r="E59" s="9">
         <f t="shared" si="11"/>
-        <v>-37.638028826516432</v>
+        <v>-34.740251347649227</v>
       </c>
       <c r="F59" s="10">
         <f t="shared" si="4"/>
-        <v>-62.638028826516432</v>
+        <v>-55.740251347649227</v>
       </c>
       <c r="G59" s="11">
         <f t="shared" si="5"/>
-        <v>-78.638028826516432</v>
+        <v>-71.740251347649235</v>
       </c>
       <c r="H59" s="9">
         <f t="shared" si="12"/>
-        <v>-60.820248657454073</v>
+        <v>-57.922471178586861</v>
       </c>
       <c r="I59" s="10">
         <f t="shared" si="6"/>
-        <v>-85.820248657454073</v>
+        <v>-78.922471178586861</v>
       </c>
       <c r="J59" s="11">
         <f t="shared" si="7"/>
-        <v>-101.82024865745407</v>
+        <v>-94.922471178586861</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2618,11 +2618,11 @@
       </c>
       <c r="B60" s="2">
         <f t="shared" si="13"/>
-        <v>-29.544232590366242</v>
+        <v>-26.589809331329615</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" si="1"/>
-        <v>-53.17961866265923</v>
+        <v>-50.225195403622607</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="8"/>
@@ -2630,27 +2630,27 @@
       </c>
       <c r="E60" s="9">
         <f t="shared" si="11"/>
-        <v>-37.735753033256159</v>
+        <v>-34.781329774219529</v>
       </c>
       <c r="F60" s="10">
         <f t="shared" si="4"/>
-        <v>-62.735753033256159</v>
+        <v>-55.781329774219529</v>
       </c>
       <c r="G60" s="11">
         <f t="shared" si="5"/>
-        <v>-78.735753033256159</v>
+        <v>-71.781329774219529</v>
       </c>
       <c r="H60" s="9">
         <f t="shared" si="12"/>
-        <v>-61.371139105549148</v>
+        <v>-58.416715846512524</v>
       </c>
       <c r="I60" s="10">
         <f t="shared" si="6"/>
-        <v>-86.371139105549148</v>
+        <v>-79.416715846512517</v>
       </c>
       <c r="J60" s="11">
         <f t="shared" si="7"/>
-        <v>-102.37113910554915</v>
+        <v>-95.416715846512517</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2659,11 +2659,11 @@
       </c>
       <c r="B61" s="2">
         <f t="shared" si="13"/>
-        <v>-29.885840942752367</v>
+        <v>-26.897256848477131</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" si="1"/>
-        <v>-53.794513696954262</v>
+        <v>-50.805929602679022</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="8"/>
@@ -2671,27 +2671,27 @@
       </c>
       <c r="E61" s="9">
         <f t="shared" si="11"/>
-        <v>-37.546285373942148</v>
+        <v>-34.557701279666908</v>
       </c>
       <c r="F61" s="10">
         <f t="shared" si="4"/>
-        <v>-62.546285373942148</v>
+        <v>-55.557701279666908</v>
       </c>
       <c r="G61" s="11">
         <f t="shared" si="5"/>
-        <v>-78.54628537394214</v>
+        <v>-71.557701279666901</v>
       </c>
       <c r="H61" s="9">
         <f t="shared" si="12"/>
-        <v>-61.454958128144042</v>
+        <v>-58.466374033868803</v>
       </c>
       <c r="I61" s="10">
         <f t="shared" si="6"/>
-        <v>-86.454958128144042</v>
+        <v>-79.466374033868803</v>
       </c>
       <c r="J61" s="11">
         <f t="shared" si="7"/>
-        <v>-102.45495812814404</v>
+        <v>-95.466374033868803</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2700,11 +2700,11 @@
       </c>
       <c r="B62" s="2">
         <f t="shared" si="13"/>
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="C62" s="2">
         <f t="shared" si="1"/>
-        <v>-54</v>
+        <v>-51</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" si="8"/>
@@ -2712,27 +2712,27 @@
       </c>
       <c r="E62" s="12">
         <f t="shared" si="11"/>
-        <v>-37.071067811865476</v>
+        <v>-34.071067811865476</v>
       </c>
       <c r="F62" s="13">
         <f t="shared" si="4"/>
-        <v>-62.071067811865476</v>
+        <v>-55.071067811865476</v>
       </c>
       <c r="G62" s="14">
         <f t="shared" si="5"/>
-        <v>-78.071067811865476</v>
+        <v>-71.071067811865476</v>
       </c>
       <c r="H62" s="12">
         <f t="shared" si="12"/>
-        <v>-61.071067811865476</v>
+        <v>-58.071067811865476</v>
       </c>
       <c r="I62" s="13">
         <f t="shared" si="6"/>
-        <v>-86.071067811865476</v>
+        <v>-79.071067811865476</v>
       </c>
       <c r="J62" s="14">
         <f t="shared" si="7"/>
-        <v>-102.07106781186548</v>
+        <v>-95.071067811865476</v>
       </c>
     </row>
   </sheetData>

--- a/Arm Position Spreadsheet.xlsx
+++ b/Arm Position Spreadsheet.xlsx
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +149,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -163,37 +169,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -227,44 +202,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,8 +736,8 @@
   </sheetPr>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,131 +751,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1">
-        <v>37</v>
+      <c r="B1" s="19">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="21">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="21">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="21">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="21">
         <f>$B$6-$B$3</f>
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:10" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="23">
         <f>$B$6-$B$3+$B$7</f>
         <v>42</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="9" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -708,12 +894,12 @@
         <v>-80</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ref="B13:B15" si="0">COS(RADIANS($A13)) * $B$1</f>
-        <v>6.4249825736764254</v>
+        <f t="shared" ref="B13" si="0">COS(RADIANS($A13)) * $B$1</f>
+        <v>5.5567416853417733</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:C15" si="1">COS(RADIANS($A13)) * ($B$1 + $B$2)</f>
-        <v>7.2932234620110776</v>
+        <f t="shared" ref="C13" si="1">COS(RADIANS($A13)) * ($B$1 + $B$2)</f>
+        <v>9.7242979493481023</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13:D15" si="2">COS(RADIANS($A13+$B$4)) * $B$5</f>
@@ -721,27 +907,27 @@
       </c>
       <c r="E13" s="6">
         <f t="shared" ref="E13:E15" si="3">B13+D13</f>
-        <v>14.616503016566343</v>
+        <v>13.748262128231691</v>
       </c>
       <c r="F13" s="7">
         <f>$B$8-ABS(E13)</f>
-        <v>11.383496983433657</v>
-      </c>
-      <c r="G13" s="7">
+        <v>12.251737871768309</v>
+      </c>
+      <c r="G13" s="9">
         <f>$B$9-ABS(F13)</f>
-        <v>30.616503016566341</v>
+        <v>29.748262128231691</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ref="H13:H15" si="4">C13+D13</f>
-        <v>15.484743904900995</v>
+        <v>17.91581839223802</v>
       </c>
       <c r="I13" s="7">
         <f>$B$8-ABS(H13)</f>
-        <v>10.515256095099005</v>
-      </c>
-      <c r="J13" s="14">
+        <v>8.0841816077619804</v>
+      </c>
+      <c r="J13" s="12">
         <f>$B$9-ABS(H13)</f>
-        <v>26.515256095099005</v>
+        <v>24.08418160776198</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -750,11 +936,11 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ref="B14:B33" si="5">COS(RADIANS($A14)) * $B$1</f>
-        <v>9.5763046687932665</v>
+        <v>8.2822094432806637</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ref="C14:C65" si="6">COS(RADIANS($A14)) * ($B$1 + $B$2)</f>
-        <v>10.870399894305871</v>
+        <v>14.493866525741161</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
@@ -762,27 +948,27 @@
       </c>
       <c r="E14" s="6">
         <f t="shared" si="3"/>
-        <v>18.236558706637652</v>
+        <v>16.942463481125053</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" ref="F14:F65" si="7">$B$8-ABS(E14)</f>
-        <v>7.763441293362348</v>
-      </c>
-      <c r="G14" s="7">
+        <v>9.0575365188749473</v>
+      </c>
+      <c r="G14" s="9">
         <f t="shared" ref="G14:G65" si="8">$B$9-ABS(F14)</f>
-        <v>34.236558706637652</v>
+        <v>32.942463481125053</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="4"/>
-        <v>19.530653932150258</v>
+        <v>23.15412056358555</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" ref="I14:I65" si="9">$B$8-ABS(H14)</f>
-        <v>6.4693460678497416</v>
-      </c>
-      <c r="J14" s="14">
+        <v>2.8458794364144495</v>
+      </c>
+      <c r="J14" s="12">
         <f t="shared" ref="J14:J65" si="10">$B$9-ABS(H14)</f>
-        <v>22.469346067849742</v>
+        <v>18.84587943641445</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -791,11 +977,11 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="5"/>
-        <v>12.654745303049747</v>
+        <v>10.944644586421402</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="6"/>
-        <v>14.36484601967809</v>
+        <v>19.153128026237454</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="2"/>
@@ -803,27 +989,27 @@
       </c>
       <c r="E15" s="6">
         <f t="shared" si="3"/>
-        <v>21.717823173416246</v>
+        <v>20.007722456787903</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="7"/>
-        <v>4.2821768265837541</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="8"/>
-        <v>37.717823173416249</v>
+        <v>5.9922775432120972</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="8"/>
+        <v>36.007722456787903</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="4"/>
-        <v>23.427923890044589</v>
+        <v>28.216205896603952</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="9"/>
-        <v>2.572076109955411</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="10"/>
-        <v>18.572076109955411</v>
+        <v>-2.2162058966039524</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="10"/>
+        <v>13.783794103396048</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -832,11 +1018,11 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="5"/>
-        <v>15.636875684405879</v>
+        <v>13.523784375702382</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="6"/>
-        <v>17.749966993109375</v>
+        <v>23.66662265747917</v>
       </c>
       <c r="D16" s="2">
         <f>COS(RADIANS($A16+$B$4)) * $B$5</f>
@@ -844,27 +1030,27 @@
       </c>
       <c r="E16" s="6">
         <f t="shared" ref="E16" si="11">B16+D16</f>
-        <v>25.033801892264965</v>
+        <v>22.920710583561466</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="7"/>
-        <v>0.96619810773503545</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="8"/>
-        <v>41.033801892264961</v>
+        <v>3.0792894164385345</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="8"/>
+        <v>38.920710583561466</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ref="H16" si="12">C16+D16</f>
-        <v>27.14689320096846</v>
+        <v>33.063548865338255</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="9"/>
-        <v>-1.14689320096846</v>
-      </c>
-      <c r="J16" s="14">
-        <f t="shared" si="10"/>
-        <v>14.85310679903154</v>
+        <v>-7.0635488653382552</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="10"/>
+        <v>8.9364511346617448</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -873,11 +1059,11 @@
       </c>
       <c r="B17" s="2">
         <f>COS(RADIANS($A17)) * $B$1</f>
-        <v>18.500000000000004</v>
+        <v>16.000000000000004</v>
       </c>
       <c r="C17" s="2">
         <f>COS(RADIANS($A17)) * ($B$1 + $B$2)</f>
-        <v>21.000000000000004</v>
+        <v>28.000000000000007</v>
       </c>
       <c r="D17" s="2">
         <f>COS(RADIANS($A17+$B$4)) * $B$5</f>
@@ -885,27 +1071,27 @@
       </c>
       <c r="E17" s="6">
         <f>B17+D17</f>
-        <v>28.159258262890688</v>
+        <v>25.659258262890688</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="7"/>
-        <v>-2.1592582628906882</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="8"/>
-        <v>39.840741737109312</v>
+        <v>0.34074173710931177</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="8"/>
+        <v>41.659258262890688</v>
       </c>
       <c r="H17" s="6">
         <f>C17+D17</f>
-        <v>30.659258262890688</v>
+        <v>37.659258262890688</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="9"/>
-        <v>-4.6592582628906882</v>
-      </c>
-      <c r="J17" s="14">
-        <f t="shared" si="10"/>
-        <v>11.340741737109312</v>
+        <v>-11.659258262890688</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="10"/>
+        <v>4.3407417371093118</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -914,11 +1100,11 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="5"/>
-        <v>21.222328144988708</v>
+        <v>18.354445963233477</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="6"/>
-        <v>24.090210326743939</v>
+        <v>32.120280435658586</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ref="D18:D65" si="13">COS(RADIANS($A18+$B$4)) * $B$5</f>
@@ -926,27 +1112,27 @@
       </c>
       <c r="E18" s="6">
         <f t="shared" ref="E18:E29" si="14">B18+D18</f>
-        <v>31.070405675110788</v>
+        <v>28.202523493355557</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="7"/>
-        <v>-5.0704056751107878</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="8"/>
-        <v>36.929594324889209</v>
+        <v>-2.2025234933555566</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="8"/>
+        <v>39.797476506644443</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ref="H18:H29" si="15">C18+D18</f>
-        <v>33.938287856866019</v>
+        <v>41.968357965780669</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="9"/>
-        <v>-7.9382878568660189</v>
-      </c>
-      <c r="J18" s="14">
-        <f t="shared" si="10"/>
-        <v>8.0617121431339811</v>
+        <v>-15.968357965780669</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="10"/>
+        <v>3.1642034219331094E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -955,11 +1141,11 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="5"/>
-        <v>23.783141558401958</v>
+        <v>20.56920350996926</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="6"/>
-        <v>26.997079606834653</v>
+        <v>35.996106142446202</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="13"/>
@@ -967,27 +1153,27 @@
       </c>
       <c r="E19" s="6">
         <f t="shared" si="14"/>
-        <v>33.745088539319411</v>
+        <v>30.531150490886716</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="7"/>
-        <v>-7.7450885393194113</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="8"/>
-        <v>34.254911460680589</v>
+        <v>-4.5311504908867164</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="8"/>
+        <v>37.468849509113284</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="15"/>
-        <v>36.959026587752106</v>
+        <v>45.958053123363655</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="9"/>
-        <v>-10.959026587752106</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="10"/>
-        <v>5.0409734122478937</v>
+        <v>-19.958053123363655</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="10"/>
+        <v>-3.9580531233636549</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -996,11 +1182,11 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="5"/>
-        <v>26.16295090390226</v>
+        <v>22.627416997969522</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="6"/>
-        <v>29.698484809834998</v>
+        <v>39.597979746446661</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="13"/>
@@ -1008,27 +1194,27 @@
       </c>
       <c r="E20" s="6">
         <f t="shared" si="14"/>
-        <v>36.162950903902257</v>
+        <v>32.627416997969519</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="7"/>
-        <v>-10.162950903902257</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="8"/>
-        <v>31.837049096097743</v>
+        <v>-6.6274169979695188</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="8"/>
+        <v>35.372583002030481</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="15"/>
-        <v>39.698484809834994</v>
+        <v>49.597979746446661</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="9"/>
-        <v>-13.698484809834994</v>
-      </c>
-      <c r="J20" s="14">
-        <f t="shared" si="10"/>
-        <v>2.3015151901650057</v>
+        <v>-23.597979746446661</v>
+      </c>
+      <c r="J20" s="31">
+        <f t="shared" si="10"/>
+        <v>-7.5979797464466614</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1037,11 +1223,11 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="5"/>
-        <v>28.343644395402187</v>
+        <v>24.513422179807296</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="6"/>
-        <v>32.173866610997074</v>
+        <v>42.89848881466277</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="13"/>
@@ -1049,27 +1235,27 @@
       </c>
       <c r="E21" s="6">
         <f t="shared" si="14"/>
-        <v>38.30559137631964</v>
+        <v>34.475369160724753</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="7"/>
-        <v>-12.30559137631964</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" si="8"/>
-        <v>29.69440862368036</v>
+        <v>-8.4753691607247532</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="8"/>
+        <v>33.524630839275247</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="15"/>
-        <v>42.135813591914527</v>
+        <v>52.860435795580223</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="9"/>
-        <v>-16.135813591914527</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" si="10"/>
-        <v>-0.13581359191452691</v>
+        <v>-26.860435795580223</v>
+      </c>
+      <c r="J21" s="31">
+        <f t="shared" si="10"/>
+        <v>-10.860435795580223</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1078,11 +1264,11 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="5"/>
-        <v>30.308625638692696</v>
+        <v>26.212865417247738</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="6"/>
-        <v>34.404385860137658</v>
+        <v>45.87251448018354</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="13"/>
@@ -1090,27 +1276,27 @@
       </c>
       <c r="E22" s="6">
         <f t="shared" si="14"/>
-        <v>40.156703168814772</v>
+        <v>36.060942947369817</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="7"/>
-        <v>-14.156703168814772</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" si="8"/>
-        <v>27.843296831185228</v>
+        <v>-10.060942947369817</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="8"/>
+        <v>31.939057052630183</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="15"/>
-        <v>44.252463390259734</v>
+        <v>55.720592010305623</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="9"/>
-        <v>-18.252463390259734</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" si="10"/>
-        <v>-2.2524633902597344</v>
+        <v>-29.720592010305623</v>
+      </c>
+      <c r="J22" s="31">
+        <f t="shared" si="10"/>
+        <v>-13.720592010305623</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1119,11 +1305,11 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="5"/>
-        <v>32.042939940024233</v>
+        <v>27.712812921102039</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="6"/>
-        <v>36.373066958946424</v>
+        <v>48.49742261192857</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="13"/>
@@ -1131,27 +1317,27 @@
       </c>
       <c r="E23" s="6">
         <f t="shared" si="14"/>
-        <v>41.702198202914914</v>
+        <v>37.372071183992723</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="7"/>
-        <v>-15.702198202914914</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="8"/>
-        <v>26.297801797085086</v>
+        <v>-11.372071183992723</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="8"/>
+        <v>30.627928816007277</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="15"/>
-        <v>46.032325221837105</v>
+        <v>58.156680874819251</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="9"/>
-        <v>-20.032325221837105</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="10"/>
-        <v>-4.0323252218371053</v>
+        <v>-32.156680874819251</v>
+      </c>
+      <c r="J23" s="31">
+        <f t="shared" si="10"/>
+        <v>-16.156680874819251</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1160,11 +1346,11 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="5"/>
-        <v>33.533388120356051</v>
+        <v>29.001849185172798</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="6"/>
-        <v>38.0649270555393</v>
+        <v>50.753236074052396</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="13"/>
@@ -1172,27 +1358,27 @@
       </c>
       <c r="E24" s="6">
         <f t="shared" si="14"/>
-        <v>42.930314328215132</v>
+        <v>38.398775393031883</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="7"/>
-        <v>-16.930314328215132</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="8"/>
-        <v>25.069685671784868</v>
+        <v>-12.398775393031883</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="8"/>
+        <v>29.601224606968117</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="15"/>
-        <v>47.461853263398382</v>
+        <v>60.150162281911477</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="9"/>
-        <v>-21.461853263398382</v>
-      </c>
-      <c r="J24" s="7">
-        <f t="shared" si="10"/>
-        <v>-5.4618532633983818</v>
+        <v>-34.150162281911477</v>
+      </c>
+      <c r="J24" s="31">
+        <f t="shared" si="10"/>
+        <v>-18.150162281911477</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1201,11 +1387,11 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="5"/>
-        <v>34.768626969078611</v>
+        <v>30.07016386514907</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="6"/>
-        <v>39.467090073008151</v>
+        <v>52.622786764010868</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="13"/>
@@ -1213,27 +1399,27 @@
       </c>
       <c r="E25" s="6">
         <f t="shared" si="14"/>
-        <v>43.831704839445109</v>
+        <v>39.133241735515568</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="7"/>
-        <v>-17.831704839445109</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="8"/>
-        <v>24.168295160554891</v>
+        <v>-13.133241735515568</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="8"/>
+        <v>28.866758264484432</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="15"/>
-        <v>48.53016794337465</v>
+        <v>61.685864634377367</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="9"/>
-        <v>-22.53016794337465</v>
-      </c>
-      <c r="J25" s="7">
-        <f t="shared" si="10"/>
-        <v>-6.53016794337465</v>
+        <v>-35.685864634377367</v>
+      </c>
+      <c r="J25" s="31">
+        <f t="shared" si="10"/>
+        <v>-19.685864634377367</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1242,11 +1428,11 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="5"/>
-        <v>35.739255572695527</v>
+        <v>30.909626441250186</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="6"/>
-        <v>40.568884704140871</v>
+        <v>54.091846272187823</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="13"/>
@@ -1254,27 +1440,27 @@
       </c>
       <c r="E26" s="6">
         <f t="shared" si="14"/>
-        <v>44.399509610539916</v>
+        <v>39.569880479094572</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="7"/>
-        <v>-18.399509610539916</v>
-      </c>
-      <c r="G26" s="7">
-        <f t="shared" si="8"/>
-        <v>23.600490389460084</v>
+        <v>-13.569880479094572</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="8"/>
+        <v>28.430119520905428</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="15"/>
-        <v>49.22913874198526</v>
+        <v>62.752100310032212</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="9"/>
-        <v>-23.22913874198526</v>
-      </c>
-      <c r="J26" s="7">
-        <f t="shared" si="10"/>
-        <v>-7.2291387419852597</v>
+        <v>-36.752100310032212</v>
+      </c>
+      <c r="J26" s="31">
+        <f t="shared" si="10"/>
+        <v>-20.752100310032212</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1283,11 +1469,11 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="5"/>
-        <v>36.437886861451695</v>
+        <v>31.513848096390657</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="6"/>
-        <v>41.361925626512736</v>
+        <v>55.149234168683648</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="13"/>
@@ -1295,27 +1481,27 @@
       </c>
       <c r="E27" s="6">
         <f t="shared" si="14"/>
-        <v>44.629407304341612</v>
+        <v>39.70536853928057</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="7"/>
-        <v>-18.629407304341612</v>
-      </c>
-      <c r="G27" s="7">
-        <f t="shared" si="8"/>
-        <v>23.370592695658388</v>
+        <v>-13.70536853928057</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="8"/>
+        <v>28.29463146071943</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="15"/>
-        <v>49.553446069402654</v>
+        <v>63.340754611573566</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="9"/>
-        <v>-23.553446069402654</v>
-      </c>
-      <c r="J27" s="7">
-        <f t="shared" si="10"/>
-        <v>-7.5534460694026535</v>
+        <v>-37.340754611573566</v>
+      </c>
+      <c r="J27" s="31">
+        <f t="shared" si="10"/>
+        <v>-21.340754611573566</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1324,11 +1510,11 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="5"/>
-        <v>36.859203829394588</v>
+        <v>31.878230338935857</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="6"/>
-        <v>41.840177319853311</v>
+        <v>55.786903093137752</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="13"/>
@@ -1336,27 +1522,27 @@
       </c>
       <c r="E28" s="6">
         <f t="shared" si="14"/>
-        <v>44.519648260584368</v>
+        <v>39.538674770125638</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="7"/>
-        <v>-18.519648260584368</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="8"/>
-        <v>23.480351739415632</v>
+        <v>-13.538674770125638</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="8"/>
+        <v>28.461325229874362</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="15"/>
-        <v>49.500621751043091</v>
+        <v>63.447347524327533</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="9"/>
-        <v>-23.500621751043091</v>
-      </c>
-      <c r="J28" s="7">
-        <f t="shared" si="10"/>
-        <v>-7.5006217510430915</v>
+        <v>-37.447347524327533</v>
+      </c>
+      <c r="J28" s="31">
+        <f t="shared" si="10"/>
+        <v>-21.447347524327533</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1365,11 +1551,11 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="6"/>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="13"/>
@@ -1377,27 +1563,27 @@
       </c>
       <c r="E29" s="6">
         <f t="shared" si="14"/>
-        <v>44.071067811865476</v>
+        <v>39.071067811865476</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="7"/>
-        <v>-18.071067811865476</v>
-      </c>
-      <c r="G29" s="7">
-        <f t="shared" si="8"/>
-        <v>23.928932188134524</v>
+        <v>-13.071067811865476</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="8"/>
+        <v>28.928932188134524</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="15"/>
-        <v>49.071067811865476</v>
+        <v>63.071067811865476</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="9"/>
-        <v>-23.071067811865476</v>
-      </c>
-      <c r="J29" s="7">
-        <f t="shared" si="10"/>
-        <v>-7.0710678118654755</v>
+        <v>-37.071067811865476</v>
+      </c>
+      <c r="J29" s="31">
+        <f t="shared" si="10"/>
+        <v>-21.071067811865476</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1406,11 +1592,11 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="5"/>
-        <v>36.859203829394588</v>
+        <v>31.878230338935857</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="6"/>
-        <v>41.840177319853311</v>
+        <v>55.786903093137752</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="13"/>
@@ -1418,27 +1604,27 @@
       </c>
       <c r="E30" s="6">
         <f t="shared" ref="E30:E65" si="16">B30+D30</f>
-        <v>43.287079926259977</v>
+        <v>38.306106435801254</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="7"/>
-        <v>-17.287079926259977</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="8"/>
-        <v>24.712920073740023</v>
+        <v>-12.306106435801254</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="8"/>
+        <v>29.693893564198746</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ref="H30:H65" si="17">C30+D30</f>
-        <v>48.268053416718701</v>
+        <v>62.214779190003142</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="9"/>
-        <v>-22.268053416718701</v>
-      </c>
-      <c r="J30" s="7">
-        <f t="shared" si="10"/>
-        <v>-6.2680534167187005</v>
+        <v>-36.214779190003142</v>
+      </c>
+      <c r="J30" s="31">
+        <f t="shared" si="10"/>
+        <v>-20.214779190003142</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1447,11 +1633,11 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="5"/>
-        <v>36.437886861451695</v>
+        <v>31.513848096390657</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="6"/>
-        <v>41.361925626512736</v>
+        <v>55.149234168683648</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="13"/>
@@ -1459,27 +1645,27 @@
       </c>
       <c r="E31" s="6">
         <f t="shared" si="16"/>
-        <v>42.173651224962157</v>
+        <v>37.249612459901115</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="7"/>
-        <v>-16.173651224962157</v>
-      </c>
-      <c r="G31" s="7">
-        <f t="shared" si="8"/>
-        <v>25.826348775037843</v>
+        <v>-11.249612459901115</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="8"/>
+        <v>30.750387540098885</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" si="17"/>
-        <v>47.097689990023198</v>
+        <v>60.884998532194111</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="9"/>
-        <v>-21.097689990023198</v>
-      </c>
-      <c r="J31" s="7">
-        <f t="shared" si="10"/>
-        <v>-5.0976899900231984</v>
+        <v>-34.884998532194111</v>
+      </c>
+      <c r="J31" s="31">
+        <f t="shared" si="10"/>
+        <v>-18.884998532194111</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1488,11 +1674,11 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="5"/>
-        <v>35.739255572695527</v>
+        <v>30.909626441250186</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="6"/>
-        <v>40.568884704140871</v>
+        <v>54.091846272187823</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="13"/>
@@ -1500,27 +1686,27 @@
       </c>
       <c r="E32" s="6">
         <f t="shared" si="16"/>
-        <v>40.739255572695527</v>
+        <v>35.90962644125019</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="7"/>
-        <v>-14.739255572695527</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" si="8"/>
-        <v>27.260744427304473</v>
+        <v>-9.9096264412501895</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="8"/>
+        <v>32.09037355874981</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" si="17"/>
-        <v>45.568884704140871</v>
+        <v>59.091846272187823</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="9"/>
-        <v>-19.568884704140871</v>
-      </c>
-      <c r="J32" s="7">
-        <f t="shared" si="10"/>
-        <v>-3.5688847041408707</v>
+        <v>-33.091846272187823</v>
+      </c>
+      <c r="J32" s="31">
+        <f t="shared" si="10"/>
+        <v>-17.091846272187823</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1529,11 +1715,11 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="5"/>
-        <v>34.768626969078611</v>
+        <v>30.07016386514907</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="6"/>
-        <v>39.467090073008151</v>
+        <v>52.622786764010868</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="13"/>
@@ -1541,27 +1727,27 @@
       </c>
       <c r="E33" s="6">
         <f t="shared" si="16"/>
-        <v>38.994809586485601</v>
+        <v>34.296346482556061</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="7"/>
-        <v>-12.994809586485601</v>
-      </c>
-      <c r="G33" s="7">
-        <f t="shared" si="8"/>
-        <v>29.005190413514399</v>
+        <v>-8.2963464825560607</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="8"/>
+        <v>33.703653517443939</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="17"/>
-        <v>43.693272690415142</v>
+        <v>56.848969381417859</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="9"/>
-        <v>-17.693272690415142</v>
-      </c>
-      <c r="J33" s="7">
-        <f t="shared" si="10"/>
-        <v>-1.6932726904151423</v>
+        <v>-30.848969381417859</v>
+      </c>
+      <c r="J33" s="31">
+        <f t="shared" si="10"/>
+        <v>-14.848969381417859</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1570,11 +1756,11 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" ref="B34:B65" si="18">COS(RADIANS($A34)) * $B$1</f>
-        <v>33.533388120356051</v>
+        <v>29.001849185172798</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="6"/>
-        <v>38.0649270555393</v>
+        <v>50.753236074052396</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="13"/>
@@ -1582,27 +1768,27 @@
       </c>
       <c r="E34" s="6">
         <f t="shared" si="16"/>
-        <v>36.953589553612737</v>
+        <v>32.422050618429488</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="7"/>
-        <v>-10.953589553612737</v>
-      </c>
-      <c r="G34" s="7">
-        <f t="shared" si="8"/>
-        <v>31.046410446387263</v>
+        <v>-6.4220506184294877</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="8"/>
+        <v>35.577949381570512</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="17"/>
-        <v>41.485128488795986</v>
+        <v>54.173437507309082</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="9"/>
-        <v>-15.485128488795986</v>
-      </c>
-      <c r="J34" s="7">
-        <f t="shared" si="10"/>
-        <v>0.51487151120401364</v>
+        <v>-28.173437507309082</v>
+      </c>
+      <c r="J34" s="31">
+        <f t="shared" si="10"/>
+        <v>-12.173437507309082</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1611,11 +1797,11 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" si="18"/>
-        <v>32.042939940024233</v>
+        <v>27.712812921102039</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="6"/>
-        <v>36.373066958946424</v>
+        <v>48.49742261192857</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="13"/>
@@ -1623,27 +1809,27 @@
       </c>
       <c r="E35" s="6">
         <f t="shared" si="16"/>
-        <v>34.631130391049439</v>
+        <v>30.301003372127248</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" si="7"/>
-        <v>-8.6311303910494388</v>
-      </c>
-      <c r="G35" s="7">
-        <f t="shared" si="8"/>
-        <v>33.368869608950561</v>
+        <v>-4.3010033721272478</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="8"/>
+        <v>37.698996627872752</v>
       </c>
       <c r="H35" s="6">
         <f t="shared" si="17"/>
-        <v>38.96125740997163</v>
+        <v>51.085613062953776</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="9"/>
-        <v>-12.96125740997163</v>
-      </c>
-      <c r="J35" s="7">
-        <f t="shared" si="10"/>
-        <v>3.0387425900283702</v>
+        <v>-25.085613062953776</v>
+      </c>
+      <c r="J35" s="31">
+        <f t="shared" si="10"/>
+        <v>-9.0856130629537759</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1652,11 +1838,11 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" si="18"/>
-        <v>30.308625638692696</v>
+        <v>26.212865417247738</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="6"/>
-        <v>34.404385860137658</v>
+        <v>45.87251448018354</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="13"/>
@@ -1664,27 +1850,27 @@
       </c>
       <c r="E36" s="6">
         <f t="shared" si="16"/>
-        <v>32.045107415361997</v>
+        <v>27.949347193917042</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="7"/>
-        <v>-6.045107415361997</v>
-      </c>
-      <c r="G36" s="7">
-        <f t="shared" si="8"/>
-        <v>35.954892584638003</v>
+        <v>-1.9493471939170419</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="8"/>
+        <v>40.050652806082958</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="17"/>
-        <v>36.140867636806959</v>
+        <v>47.608996256852841</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="9"/>
-        <v>-10.140867636806959</v>
-      </c>
-      <c r="J36" s="7">
-        <f t="shared" si="10"/>
-        <v>5.8591323631930408</v>
+        <v>-21.608996256852841</v>
+      </c>
+      <c r="J36" s="31">
+        <f t="shared" si="10"/>
+        <v>-5.6089962568528406</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1693,11 +1879,11 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" si="18"/>
-        <v>28.343644395402187</v>
+        <v>24.513422179807296</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="6"/>
-        <v>32.173866610997074</v>
+        <v>42.89848881466277</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="13"/>
@@ -1705,27 +1891,27 @@
       </c>
       <c r="E37" s="6">
         <f t="shared" si="16"/>
-        <v>29.215201822878768</v>
+        <v>25.384979607283878</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="7"/>
-        <v>-3.2152018228787682</v>
-      </c>
-      <c r="G37" s="7">
-        <f t="shared" si="8"/>
-        <v>38.784798177121232</v>
+        <v>0.61502039271612219</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="8"/>
+        <v>41.384979607283881</v>
       </c>
       <c r="H37" s="6">
         <f t="shared" si="17"/>
-        <v>33.045424038473655</v>
+        <v>43.770046242139351</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="9"/>
-        <v>-7.0454240384736551</v>
-      </c>
-      <c r="J37" s="7">
-        <f t="shared" si="10"/>
-        <v>8.9545759615263449</v>
+        <v>-17.770046242139351</v>
+      </c>
+      <c r="J37" s="31">
+        <f t="shared" si="10"/>
+        <v>-1.770046242139351</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1734,11 +1920,11 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" si="18"/>
-        <v>26.16295090390226</v>
+        <v>22.627416997969522</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="6"/>
-        <v>29.698484809834998</v>
+        <v>39.597979746446661</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="13"/>
@@ -1746,27 +1932,27 @@
       </c>
       <c r="E38" s="6">
         <f t="shared" si="16"/>
-        <v>26.16295090390226</v>
+        <v>22.627416997969522</v>
       </c>
       <c r="F38" s="7">
         <f t="shared" si="7"/>
-        <v>-0.16295090390226008</v>
-      </c>
-      <c r="G38" s="7">
-        <f t="shared" si="8"/>
-        <v>41.837049096097743</v>
+        <v>3.3725830020304777</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="8"/>
+        <v>38.627416997969519</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" si="17"/>
-        <v>29.698484809834998</v>
+        <v>39.597979746446661</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="9"/>
-        <v>-3.6984848098349978</v>
-      </c>
-      <c r="J38" s="7">
-        <f t="shared" si="10"/>
-        <v>12.301515190165002</v>
+        <v>-13.597979746446661</v>
+      </c>
+      <c r="J38" s="12">
+        <f t="shared" si="10"/>
+        <v>2.4020202535533386</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1775,11 +1961,11 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" si="18"/>
-        <v>23.783141558401958</v>
+        <v>20.56920350996926</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="6"/>
-        <v>26.997079606834653</v>
+        <v>35.996106142446202</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="13"/>
@@ -1787,27 +1973,27 @@
       </c>
       <c r="E39" s="6">
         <f t="shared" si="16"/>
-        <v>22.911584130925377</v>
+        <v>19.697646082492678</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="7"/>
-        <v>3.0884158690746233</v>
-      </c>
-      <c r="G39" s="7">
-        <f t="shared" si="8"/>
-        <v>38.911584130925377</v>
+        <v>6.3023539175073218</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="8"/>
+        <v>35.697646082492682</v>
       </c>
       <c r="H39" s="6">
         <f t="shared" si="17"/>
-        <v>26.125522179358072</v>
+        <v>35.12454871496962</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="9"/>
-        <v>-0.12552217935807164</v>
-      </c>
-      <c r="J39" s="7">
-        <f t="shared" si="10"/>
-        <v>15.874477820641928</v>
+        <v>-9.1245487149696203</v>
+      </c>
+      <c r="J39" s="12">
+        <f t="shared" si="10"/>
+        <v>6.8754512850303797</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1816,11 +2002,11 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" si="18"/>
-        <v>21.222328144988708</v>
+        <v>18.354445963233477</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="6"/>
-        <v>24.090210326743939</v>
+        <v>32.120280435658586</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="13"/>
@@ -1828,27 +2014,27 @@
       </c>
       <c r="E40" s="6">
         <f t="shared" si="16"/>
-        <v>19.485846368319404</v>
+        <v>16.617964186564173</v>
       </c>
       <c r="F40" s="7">
         <f t="shared" si="7"/>
-        <v>6.5141536316805961</v>
-      </c>
-      <c r="G40" s="7">
-        <f t="shared" si="8"/>
-        <v>35.4858463683194</v>
+        <v>9.3820358134358273</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="8"/>
+        <v>32.617964186564173</v>
       </c>
       <c r="H40" s="6">
         <f t="shared" si="17"/>
-        <v>22.353728550074635</v>
+        <v>30.383798658989281</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="9"/>
-        <v>3.646271449925365</v>
-      </c>
-      <c r="J40" s="7">
-        <f t="shared" si="10"/>
-        <v>19.646271449925365</v>
+        <v>-4.3837986589892814</v>
+      </c>
+      <c r="J40" s="12">
+        <f t="shared" si="10"/>
+        <v>11.616201341010719</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1857,11 +2043,11 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" si="18"/>
-        <v>18.500000000000004</v>
+        <v>16.000000000000004</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="6"/>
-        <v>21.000000000000004</v>
+        <v>28.000000000000007</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="13"/>
@@ -1869,27 +2055,27 @@
       </c>
       <c r="E41" s="6">
         <f t="shared" si="16"/>
-        <v>15.911809548974794</v>
+        <v>13.411809548974794</v>
       </c>
       <c r="F41" s="7">
         <f t="shared" si="7"/>
-        <v>10.088190451025206</v>
-      </c>
-      <c r="G41" s="7">
-        <f t="shared" si="8"/>
-        <v>31.911809548974794</v>
+        <v>12.588190451025206</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" si="8"/>
+        <v>29.411809548974794</v>
       </c>
       <c r="H41" s="6">
         <f t="shared" si="17"/>
-        <v>18.411809548974794</v>
+        <v>25.411809548974798</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="9"/>
-        <v>7.5881904510252056</v>
-      </c>
-      <c r="J41" s="7">
-        <f t="shared" si="10"/>
-        <v>23.588190451025206</v>
+        <v>0.58819045102520207</v>
+      </c>
+      <c r="J41" s="12">
+        <f t="shared" si="10"/>
+        <v>16.588190451025202</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1898,11 +2084,11 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" si="18"/>
-        <v>15.636875684405879</v>
+        <v>13.523784375702382</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="6"/>
-        <v>17.749966993109375</v>
+        <v>23.66662265747917</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="13"/>
@@ -1910,27 +2096,27 @@
       </c>
       <c r="E42" s="6">
         <f t="shared" si="16"/>
-        <v>12.216674251149193</v>
+        <v>10.103582942445694</v>
       </c>
       <c r="F42" s="7">
         <f t="shared" si="7"/>
-        <v>13.783325748850807</v>
-      </c>
-      <c r="G42" s="7">
-        <f t="shared" si="8"/>
-        <v>28.216674251149193</v>
+        <v>15.896417057554306</v>
+      </c>
+      <c r="G42" s="9">
+        <f t="shared" si="8"/>
+        <v>26.103582942445694</v>
       </c>
       <c r="H42" s="6">
         <f t="shared" si="17"/>
-        <v>14.329765559852689</v>
+        <v>20.246421224222484</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="9"/>
-        <v>11.670234440147311</v>
-      </c>
-      <c r="J42" s="7">
-        <f t="shared" si="10"/>
-        <v>27.670234440147311</v>
+        <v>5.7535787757775161</v>
+      </c>
+      <c r="J42" s="12">
+        <f t="shared" si="10"/>
+        <v>21.753578775777516</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1939,11 +2125,11 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" si="18"/>
-        <v>12.654745303049747</v>
+        <v>10.944644586421402</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="6"/>
-        <v>14.36484601967809</v>
+        <v>19.153128026237454</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="13"/>
@@ -1951,27 +2137,27 @@
       </c>
       <c r="E43" s="6">
         <f t="shared" si="16"/>
-        <v>8.4285626856427527</v>
+        <v>6.7184619690144087</v>
       </c>
       <c r="F43" s="7">
         <f t="shared" si="7"/>
-        <v>17.571437314357247</v>
-      </c>
-      <c r="G43" s="7">
-        <f t="shared" si="8"/>
-        <v>24.428562685642753</v>
+        <v>19.28153803098559</v>
+      </c>
+      <c r="G43" s="9">
+        <f t="shared" si="8"/>
+        <v>22.71846196901441</v>
       </c>
       <c r="H43" s="6">
         <f t="shared" si="17"/>
-        <v>10.138663402271096</v>
+        <v>14.926945408830459</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="9"/>
-        <v>15.861336597728904</v>
-      </c>
-      <c r="J43" s="7">
-        <f t="shared" si="10"/>
-        <v>31.861336597728904</v>
+        <v>11.073054591169541</v>
+      </c>
+      <c r="J43" s="12">
+        <f t="shared" si="10"/>
+        <v>27.073054591169541</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1980,11 +2166,11 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" si="18"/>
-        <v>9.5763046687932665</v>
+        <v>8.2822094432806637</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="6"/>
-        <v>10.870399894305871</v>
+        <v>14.493866525741161</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="13"/>
@@ -1992,27 +2178,27 @@
       </c>
       <c r="E44" s="6">
         <f t="shared" si="16"/>
-        <v>4.5763046687932682</v>
+        <v>3.2822094432806654</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="7"/>
-        <v>21.42369533120673</v>
-      </c>
-      <c r="G44" s="7">
-        <f t="shared" si="8"/>
-        <v>20.57630466879327</v>
+        <v>22.717790556719336</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="8"/>
+        <v>19.282209443280664</v>
       </c>
       <c r="H44" s="6">
         <f t="shared" si="17"/>
-        <v>5.8703998943058728</v>
+        <v>9.4938665257411632</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="9"/>
-        <v>20.129600105694127</v>
-      </c>
-      <c r="J44" s="7">
-        <f t="shared" si="10"/>
-        <v>36.129600105694124</v>
+        <v>16.506133474258839</v>
+      </c>
+      <c r="J44" s="12">
+        <f t="shared" si="10"/>
+        <v>32.506133474258839</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2021,11 +2207,11 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" si="18"/>
-        <v>6.4249825736764254</v>
+        <v>5.5567416853417733</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="6"/>
-        <v>7.2932234620110776</v>
+        <v>9.7242979493481023</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="13"/>
@@ -2033,27 +2219,27 @@
       </c>
       <c r="E45" s="6">
         <f t="shared" si="16"/>
-        <v>0.68921821016596407</v>
+        <v>-0.17902267816868811</v>
       </c>
       <c r="F45" s="7">
         <f t="shared" si="7"/>
-        <v>25.310781789834035</v>
-      </c>
-      <c r="G45" s="7">
-        <f t="shared" si="8"/>
-        <v>16.689218210165965</v>
+        <v>25.820977321831311</v>
+      </c>
+      <c r="G45" s="9">
+        <f t="shared" si="8"/>
+        <v>16.179022678168689</v>
       </c>
       <c r="H45" s="6">
         <f t="shared" si="17"/>
-        <v>1.5574590985006163</v>
+        <v>3.9885335858376409</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="9"/>
-        <v>24.442540901499385</v>
-      </c>
-      <c r="J45" s="7">
-        <f t="shared" si="10"/>
-        <v>40.442540901499385</v>
+        <v>22.01146641416236</v>
+      </c>
+      <c r="J45" s="12">
+        <f t="shared" si="10"/>
+        <v>38.011466414162356</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2062,11 +2248,11 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" si="18"/>
-        <v>3.2247624816633511</v>
+        <v>2.7889837679250604</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="6"/>
-        <v>3.6605411954016418</v>
+        <v>4.8807215938688557</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="13"/>
@@ -2074,27 +2260,27 @@
       </c>
       <c r="E46" s="6">
         <f t="shared" si="16"/>
-        <v>-3.2031136152020423</v>
+        <v>-3.638892328940333</v>
       </c>
       <c r="F46" s="7">
         <f t="shared" si="7"/>
-        <v>22.796886384797958</v>
-      </c>
-      <c r="G46" s="7">
-        <f t="shared" si="8"/>
-        <v>19.203113615202042</v>
+        <v>22.361107671059667</v>
+      </c>
+      <c r="G46" s="9">
+        <f t="shared" si="8"/>
+        <v>19.638892328940333</v>
       </c>
       <c r="H46" s="6">
         <f t="shared" si="17"/>
-        <v>-2.7673349014637516</v>
+        <v>-1.5471545029965377</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="9"/>
-        <v>23.232665098536248</v>
-      </c>
-      <c r="J46" s="7">
-        <f t="shared" si="10"/>
-        <v>39.232665098536245</v>
+        <v>24.452845497003462</v>
+      </c>
+      <c r="J46" s="12">
+        <f t="shared" si="10"/>
+        <v>40.452845497003466</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2103,11 +2289,11 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" si="18"/>
-        <v>2.266524641580947E-15</v>
+        <v>1.960237527853792E-15</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" si="6"/>
-        <v>2.572811755308102E-15</v>
+        <v>3.430415673744136E-15</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="13"/>
@@ -2115,27 +2301,27 @@
       </c>
       <c r="E47" s="6">
         <f t="shared" si="16"/>
-        <v>-7.071067811865472</v>
+        <v>-7.0710678118654728</v>
       </c>
       <c r="F47" s="7">
         <f t="shared" si="7"/>
         <v>18.928932188134528</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="9">
         <f t="shared" si="8"/>
         <v>23.071067811865472</v>
       </c>
       <c r="H47" s="6">
         <f t="shared" si="17"/>
-        <v>-7.071067811865472</v>
+        <v>-7.0710678118654711</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="9"/>
         <v>18.928932188134528</v>
       </c>
-      <c r="J47" s="7">
-        <f t="shared" si="10"/>
-        <v>34.928932188134524</v>
+      <c r="J47" s="12">
+        <f t="shared" si="10"/>
+        <v>34.928932188134532</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2144,11 +2330,11 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" si="18"/>
-        <v>-3.2247624816633547</v>
+        <v>-2.7889837679250635</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" si="6"/>
-        <v>-3.6605411954016458</v>
+        <v>-4.8807215938688611</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="13"/>
@@ -2156,27 +2342,27 @@
       </c>
       <c r="E48" s="6">
         <f t="shared" si="16"/>
-        <v>-10.885206912853134</v>
+        <v>-10.449428199114843</v>
       </c>
       <c r="F48" s="7">
         <f t="shared" si="7"/>
-        <v>15.114793087146866</v>
-      </c>
-      <c r="G48" s="7">
-        <f t="shared" si="8"/>
-        <v>26.885206912853135</v>
+        <v>15.550571800885157</v>
+      </c>
+      <c r="G48" s="9">
+        <f t="shared" si="8"/>
+        <v>26.449428199114841</v>
       </c>
       <c r="H48" s="6">
         <f t="shared" si="17"/>
-        <v>-11.320985626591424</v>
+        <v>-12.54116602505864</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="9"/>
-        <v>14.679014373408576</v>
-      </c>
-      <c r="J48" s="7">
-        <f t="shared" si="10"/>
-        <v>30.679014373408577</v>
+        <v>13.45883397494136</v>
+      </c>
+      <c r="J48" s="12">
+        <f t="shared" si="10"/>
+        <v>29.45883397494136</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2185,11 +2371,11 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" si="18"/>
-        <v>-6.424982573676421</v>
+        <v>-5.5567416853417697</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" si="6"/>
-        <v>-7.2932234620110723</v>
+        <v>-9.724297949348097</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="13"/>
@@ -2197,27 +2383,27 @@
       </c>
       <c r="E49" s="6">
         <f t="shared" si="16"/>
-        <v>-14.616503016566341</v>
+        <v>-13.748262128231689</v>
       </c>
       <c r="F49" s="7">
         <f t="shared" si="7"/>
-        <v>11.383496983433659</v>
-      </c>
-      <c r="G49" s="7">
-        <f t="shared" si="8"/>
-        <v>30.616503016566341</v>
+        <v>12.251737871768311</v>
+      </c>
+      <c r="G49" s="9">
+        <f t="shared" si="8"/>
+        <v>29.748262128231687</v>
       </c>
       <c r="H49" s="6">
         <f t="shared" si="17"/>
-        <v>-15.484743904900991</v>
+        <v>-17.915818392238016</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="9"/>
-        <v>10.515256095099009</v>
-      </c>
-      <c r="J49" s="7">
-        <f t="shared" si="10"/>
-        <v>26.515256095099009</v>
+        <v>8.0841816077619839</v>
+      </c>
+      <c r="J49" s="12">
+        <f t="shared" si="10"/>
+        <v>24.084181607761984</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2226,11 +2412,11 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" si="18"/>
-        <v>-9.5763046687932718</v>
+        <v>-8.2822094432806672</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="6"/>
-        <v>-10.870399894305876</v>
+        <v>-14.493866525741169</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="13"/>
@@ -2238,27 +2424,27 @@
       </c>
       <c r="E50" s="6">
         <f t="shared" si="16"/>
-        <v>-18.236558706637659</v>
+        <v>-16.942463481125053</v>
       </c>
       <c r="F50" s="7">
         <f t="shared" si="7"/>
-        <v>7.7634412933623409</v>
-      </c>
-      <c r="G50" s="7">
-        <f t="shared" si="8"/>
-        <v>34.236558706637659</v>
+        <v>9.0575365188749473</v>
+      </c>
+      <c r="G50" s="9">
+        <f t="shared" si="8"/>
+        <v>32.942463481125053</v>
       </c>
       <c r="H50" s="6">
         <f t="shared" si="17"/>
-        <v>-19.530653932150265</v>
+        <v>-23.154120563585558</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="9"/>
-        <v>6.4693460678497345</v>
-      </c>
-      <c r="J50" s="7">
-        <f t="shared" si="10"/>
-        <v>22.469346067849735</v>
+        <v>2.8458794364144424</v>
+      </c>
+      <c r="J50" s="12">
+        <f t="shared" si="10"/>
+        <v>18.845879436414442</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2267,11 +2453,11 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" si="18"/>
-        <v>-12.654745303049742</v>
+        <v>-10.944644586421399</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" si="6"/>
-        <v>-14.364846019678087</v>
+        <v>-19.153128026237447</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" si="13"/>
@@ -2279,27 +2465,27 @@
       </c>
       <c r="E51" s="6">
         <f t="shared" si="16"/>
-        <v>-21.717823173416242</v>
+        <v>-20.007722456787896</v>
       </c>
       <c r="F51" s="7">
         <f t="shared" si="7"/>
-        <v>4.2821768265837576</v>
-      </c>
-      <c r="G51" s="7">
-        <f t="shared" si="8"/>
-        <v>37.717823173416242</v>
+        <v>5.9922775432121043</v>
+      </c>
+      <c r="G51" s="9">
+        <f t="shared" si="8"/>
+        <v>36.007722456787896</v>
       </c>
       <c r="H51" s="6">
         <f t="shared" si="17"/>
-        <v>-23.427923890044585</v>
+        <v>-28.216205896603945</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="9"/>
-        <v>2.5720761099554146</v>
-      </c>
-      <c r="J51" s="7">
-        <f t="shared" si="10"/>
-        <v>18.572076109955415</v>
+        <v>-2.2162058966039453</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="10"/>
+        <v>13.783794103396055</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2308,11 +2494,11 @@
       </c>
       <c r="B52" s="2">
         <f t="shared" si="18"/>
-        <v>-15.636875684405876</v>
+        <v>-13.523784375702379</v>
       </c>
       <c r="C52" s="2">
         <f t="shared" si="6"/>
-        <v>-17.749966993109371</v>
+        <v>-23.666622657479163</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="13"/>
@@ -2320,27 +2506,27 @@
       </c>
       <c r="E52" s="6">
         <f t="shared" si="16"/>
-        <v>-25.033801892264961</v>
+        <v>-22.920710583561462</v>
       </c>
       <c r="F52" s="7">
         <f t="shared" si="7"/>
-        <v>0.966198107735039</v>
-      </c>
-      <c r="G52" s="7">
-        <f t="shared" si="8"/>
-        <v>41.033801892264961</v>
+        <v>3.079289416438538</v>
+      </c>
+      <c r="G52" s="9">
+        <f t="shared" si="8"/>
+        <v>38.920710583561458</v>
       </c>
       <c r="H52" s="6">
         <f t="shared" si="17"/>
-        <v>-27.146893200968456</v>
+        <v>-33.063548865338248</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="9"/>
-        <v>-1.1468932009684565</v>
-      </c>
-      <c r="J52" s="7">
-        <f t="shared" si="10"/>
-        <v>14.853106799031544</v>
+        <v>-7.0635488653382481</v>
+      </c>
+      <c r="J52" s="12">
+        <f t="shared" si="10"/>
+        <v>8.9364511346617519</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2349,11 +2535,11 @@
       </c>
       <c r="B53" s="2">
         <f t="shared" si="18"/>
-        <v>-18.499999999999993</v>
+        <v>-15.999999999999993</v>
       </c>
       <c r="C53" s="2">
         <f t="shared" si="6"/>
-        <v>-20.999999999999989</v>
+        <v>-27.999999999999986</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="13"/>
@@ -2361,27 +2547,27 @@
       </c>
       <c r="E53" s="6">
         <f t="shared" si="16"/>
-        <v>-28.159258262890674</v>
+        <v>-25.659258262890674</v>
       </c>
       <c r="F53" s="7">
         <f t="shared" si="7"/>
-        <v>-2.159258262890674</v>
-      </c>
-      <c r="G53" s="7">
-        <f t="shared" si="8"/>
-        <v>39.840741737109326</v>
+        <v>0.34074173710932598</v>
+      </c>
+      <c r="G53" s="9">
+        <f t="shared" si="8"/>
+        <v>41.659258262890674</v>
       </c>
       <c r="H53" s="6">
         <f t="shared" si="17"/>
-        <v>-30.65925826289067</v>
+        <v>-37.659258262890667</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="9"/>
-        <v>-4.6592582628906705</v>
-      </c>
-      <c r="J53" s="7">
-        <f t="shared" si="10"/>
-        <v>11.34074173710933</v>
+        <v>-11.659258262890667</v>
+      </c>
+      <c r="J53" s="12">
+        <f t="shared" si="10"/>
+        <v>4.3407417371093331</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2390,11 +2576,11 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" si="18"/>
-        <v>-21.222328144988708</v>
+        <v>-18.354445963233477</v>
       </c>
       <c r="C54" s="2">
         <f t="shared" si="6"/>
-        <v>-24.090210326743939</v>
+        <v>-32.120280435658586</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="13"/>
@@ -2402,27 +2588,27 @@
       </c>
       <c r="E54" s="6">
         <f t="shared" si="16"/>
-        <v>-31.070405675110788</v>
+        <v>-28.202523493355557</v>
       </c>
       <c r="F54" s="7">
         <f t="shared" si="7"/>
-        <v>-5.0704056751107878</v>
-      </c>
-      <c r="G54" s="7">
-        <f t="shared" si="8"/>
-        <v>36.929594324889209</v>
+        <v>-2.2025234933555566</v>
+      </c>
+      <c r="G54" s="9">
+        <f t="shared" si="8"/>
+        <v>39.797476506644443</v>
       </c>
       <c r="H54" s="6">
         <f t="shared" si="17"/>
-        <v>-33.938287856866019</v>
+        <v>-41.968357965780669</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="9"/>
-        <v>-7.9382878568660189</v>
-      </c>
-      <c r="J54" s="7">
-        <f t="shared" si="10"/>
-        <v>8.0617121431339811</v>
+        <v>-15.968357965780669</v>
+      </c>
+      <c r="J54" s="12">
+        <f t="shared" si="10"/>
+        <v>3.1642034219331094E-2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2431,11 +2617,11 @@
       </c>
       <c r="B55" s="2">
         <f t="shared" si="18"/>
-        <v>-23.783141558401958</v>
+        <v>-20.56920350996926</v>
       </c>
       <c r="C55" s="2">
         <f t="shared" si="6"/>
-        <v>-26.997079606834653</v>
+        <v>-35.996106142446202</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="13"/>
@@ -2443,27 +2629,27 @@
       </c>
       <c r="E55" s="6">
         <f t="shared" si="16"/>
-        <v>-33.745088539319411</v>
+        <v>-30.531150490886716</v>
       </c>
       <c r="F55" s="7">
         <f t="shared" si="7"/>
-        <v>-7.7450885393194113</v>
-      </c>
-      <c r="G55" s="7">
-        <f t="shared" si="8"/>
-        <v>34.254911460680589</v>
+        <v>-4.5311504908867164</v>
+      </c>
+      <c r="G55" s="9">
+        <f t="shared" si="8"/>
+        <v>37.468849509113284</v>
       </c>
       <c r="H55" s="6">
         <f t="shared" si="17"/>
-        <v>-36.959026587752106</v>
+        <v>-45.958053123363655</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="9"/>
-        <v>-10.959026587752106</v>
-      </c>
-      <c r="J55" s="7">
-        <f t="shared" si="10"/>
-        <v>5.0409734122478937</v>
+        <v>-19.958053123363655</v>
+      </c>
+      <c r="J55" s="9">
+        <f t="shared" si="10"/>
+        <v>-3.9580531233636549</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2472,11 +2658,11 @@
       </c>
       <c r="B56" s="2">
         <f t="shared" si="18"/>
-        <v>-26.162950903902257</v>
+        <v>-22.627416997969519</v>
       </c>
       <c r="C56" s="2">
         <f t="shared" si="6"/>
-        <v>-29.698484809834994</v>
+        <v>-39.597979746446654</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="13"/>
@@ -2484,27 +2670,27 @@
       </c>
       <c r="E56" s="6">
         <f t="shared" si="16"/>
-        <v>-36.162950903902257</v>
+        <v>-32.627416997969519</v>
       </c>
       <c r="F56" s="7">
         <f t="shared" si="7"/>
-        <v>-10.162950903902257</v>
-      </c>
-      <c r="G56" s="7">
-        <f t="shared" si="8"/>
-        <v>31.837049096097743</v>
+        <v>-6.6274169979695188</v>
+      </c>
+      <c r="G56" s="9">
+        <f t="shared" si="8"/>
+        <v>35.372583002030481</v>
       </c>
       <c r="H56" s="6">
         <f t="shared" si="17"/>
-        <v>-39.698484809834994</v>
+        <v>-49.597979746446654</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="9"/>
-        <v>-13.698484809834994</v>
-      </c>
-      <c r="J56" s="7">
-        <f t="shared" si="10"/>
-        <v>2.3015151901650057</v>
+        <v>-23.597979746446654</v>
+      </c>
+      <c r="J56" s="9">
+        <f t="shared" si="10"/>
+        <v>-7.5979797464466543</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2513,11 +2699,11 @@
       </c>
       <c r="B57" s="2">
         <f t="shared" si="18"/>
-        <v>-28.343644395402183</v>
+        <v>-24.513422179807293</v>
       </c>
       <c r="C57" s="2">
         <f t="shared" si="6"/>
-        <v>-32.173866610997074</v>
+        <v>-42.898488814662763</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="13"/>
@@ -2525,27 +2711,27 @@
       </c>
       <c r="E57" s="6">
         <f t="shared" si="16"/>
-        <v>-38.30559137631964</v>
+        <v>-34.475369160724746</v>
       </c>
       <c r="F57" s="7">
         <f t="shared" si="7"/>
-        <v>-12.30559137631964</v>
-      </c>
-      <c r="G57" s="7">
-        <f t="shared" si="8"/>
-        <v>29.69440862368036</v>
+        <v>-8.4753691607247461</v>
+      </c>
+      <c r="G57" s="9">
+        <f t="shared" si="8"/>
+        <v>33.524630839275254</v>
       </c>
       <c r="H57" s="6">
         <f t="shared" si="17"/>
-        <v>-42.135813591914527</v>
+        <v>-52.860435795580216</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="9"/>
-        <v>-16.135813591914527</v>
-      </c>
-      <c r="J57" s="7">
-        <f t="shared" si="10"/>
-        <v>-0.13581359191452691</v>
+        <v>-26.860435795580216</v>
+      </c>
+      <c r="J57" s="9">
+        <f t="shared" si="10"/>
+        <v>-10.860435795580216</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2554,11 +2740,11 @@
       </c>
       <c r="B58" s="2">
         <f t="shared" si="18"/>
-        <v>-30.3086256386927</v>
+        <v>-26.212865417247741</v>
       </c>
       <c r="C58" s="2">
         <f t="shared" si="6"/>
-        <v>-34.404385860137658</v>
+        <v>-45.872514480183547</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="13"/>
@@ -2566,27 +2752,27 @@
       </c>
       <c r="E58" s="6">
         <f t="shared" si="16"/>
-        <v>-40.156703168814779</v>
+        <v>-36.060942947369824</v>
       </c>
       <c r="F58" s="7">
         <f t="shared" si="7"/>
-        <v>-14.156703168814779</v>
-      </c>
-      <c r="G58" s="7">
-        <f t="shared" si="8"/>
-        <v>27.843296831185221</v>
+        <v>-10.060942947369824</v>
+      </c>
+      <c r="G58" s="9">
+        <f t="shared" si="8"/>
+        <v>31.939057052630176</v>
       </c>
       <c r="H58" s="6">
         <f t="shared" si="17"/>
-        <v>-44.252463390259734</v>
+        <v>-55.720592010305623</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="9"/>
-        <v>-18.252463390259734</v>
-      </c>
-      <c r="J58" s="7">
-        <f t="shared" si="10"/>
-        <v>-2.2524633902597344</v>
+        <v>-29.720592010305623</v>
+      </c>
+      <c r="J58" s="9">
+        <f t="shared" si="10"/>
+        <v>-13.720592010305623</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2595,11 +2781,11 @@
       </c>
       <c r="B59" s="2">
         <f t="shared" si="18"/>
-        <v>-32.042939940024233</v>
+        <v>-27.712812921102039</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" si="6"/>
-        <v>-36.373066958946424</v>
+        <v>-48.49742261192857</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" si="13"/>
@@ -2607,27 +2793,27 @@
       </c>
       <c r="E59" s="6">
         <f t="shared" si="16"/>
-        <v>-41.702198202914914</v>
+        <v>-37.372071183992723</v>
       </c>
       <c r="F59" s="7">
         <f t="shared" si="7"/>
-        <v>-15.702198202914914</v>
-      </c>
-      <c r="G59" s="7">
-        <f t="shared" si="8"/>
-        <v>26.297801797085086</v>
+        <v>-11.372071183992723</v>
+      </c>
+      <c r="G59" s="9">
+        <f t="shared" si="8"/>
+        <v>30.627928816007277</v>
       </c>
       <c r="H59" s="6">
         <f t="shared" si="17"/>
-        <v>-46.032325221837105</v>
+        <v>-58.156680874819251</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="9"/>
-        <v>-20.032325221837105</v>
-      </c>
-      <c r="J59" s="7">
-        <f t="shared" si="10"/>
-        <v>-4.0323252218371053</v>
+        <v>-32.156680874819251</v>
+      </c>
+      <c r="J59" s="9">
+        <f t="shared" si="10"/>
+        <v>-16.156680874819251</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2636,11 +2822,11 @@
       </c>
       <c r="B60" s="2">
         <f t="shared" si="18"/>
-        <v>-33.533388120356051</v>
+        <v>-29.001849185172798</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" si="6"/>
-        <v>-38.0649270555393</v>
+        <v>-50.753236074052396</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="13"/>
@@ -2648,27 +2834,27 @@
       </c>
       <c r="E60" s="6">
         <f t="shared" si="16"/>
-        <v>-42.930314328215132</v>
+        <v>-38.398775393031883</v>
       </c>
       <c r="F60" s="7">
         <f t="shared" si="7"/>
-        <v>-16.930314328215132</v>
-      </c>
-      <c r="G60" s="7">
-        <f t="shared" si="8"/>
-        <v>25.069685671784868</v>
+        <v>-12.398775393031883</v>
+      </c>
+      <c r="G60" s="9">
+        <f t="shared" si="8"/>
+        <v>29.601224606968117</v>
       </c>
       <c r="H60" s="6">
         <f t="shared" si="17"/>
-        <v>-47.461853263398382</v>
+        <v>-60.150162281911477</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="9"/>
-        <v>-21.461853263398382</v>
-      </c>
-      <c r="J60" s="7">
-        <f t="shared" si="10"/>
-        <v>-5.4618532633983818</v>
+        <v>-34.150162281911477</v>
+      </c>
+      <c r="J60" s="9">
+        <f t="shared" si="10"/>
+        <v>-18.150162281911477</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2677,11 +2863,11 @@
       </c>
       <c r="B61" s="2">
         <f t="shared" si="18"/>
-        <v>-34.768626969078611</v>
+        <v>-30.070163865149066</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" si="6"/>
-        <v>-39.467090073008151</v>
+        <v>-52.622786764010868</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="13"/>
@@ -2689,27 +2875,27 @@
       </c>
       <c r="E61" s="6">
         <f t="shared" si="16"/>
-        <v>-43.831704839445109</v>
+        <v>-39.133241735515568</v>
       </c>
       <c r="F61" s="7">
         <f t="shared" si="7"/>
-        <v>-17.831704839445109</v>
-      </c>
-      <c r="G61" s="7">
-        <f t="shared" si="8"/>
-        <v>24.168295160554891</v>
+        <v>-13.133241735515568</v>
+      </c>
+      <c r="G61" s="9">
+        <f t="shared" si="8"/>
+        <v>28.866758264484432</v>
       </c>
       <c r="H61" s="6">
         <f t="shared" si="17"/>
-        <v>-48.53016794337465</v>
+        <v>-61.685864634377367</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="9"/>
-        <v>-22.53016794337465</v>
-      </c>
-      <c r="J61" s="7">
-        <f t="shared" si="10"/>
-        <v>-6.53016794337465</v>
+        <v>-35.685864634377367</v>
+      </c>
+      <c r="J61" s="9">
+        <f t="shared" si="10"/>
+        <v>-19.685864634377367</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2718,11 +2904,11 @@
       </c>
       <c r="B62" s="2">
         <f t="shared" si="18"/>
-        <v>-35.739255572695527</v>
+        <v>-30.909626441250182</v>
       </c>
       <c r="C62" s="2">
         <f t="shared" si="6"/>
-        <v>-40.568884704140864</v>
+        <v>-54.091846272187823</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" si="13"/>
@@ -2730,27 +2916,27 @@
       </c>
       <c r="E62" s="6">
         <f t="shared" si="16"/>
-        <v>-44.399509610539909</v>
+        <v>-39.569880479094564</v>
       </c>
       <c r="F62" s="7">
         <f t="shared" si="7"/>
-        <v>-18.399509610539909</v>
-      </c>
-      <c r="G62" s="7">
-        <f t="shared" si="8"/>
-        <v>23.600490389460091</v>
+        <v>-13.569880479094564</v>
+      </c>
+      <c r="G62" s="9">
+        <f t="shared" si="8"/>
+        <v>28.430119520905436</v>
       </c>
       <c r="H62" s="6">
         <f t="shared" si="17"/>
-        <v>-49.229138741985253</v>
+        <v>-62.752100310032205</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="9"/>
-        <v>-23.229138741985253</v>
-      </c>
-      <c r="J62" s="7">
-        <f t="shared" si="10"/>
-        <v>-7.2291387419852526</v>
+        <v>-36.752100310032205</v>
+      </c>
+      <c r="J62" s="9">
+        <f t="shared" si="10"/>
+        <v>-20.752100310032205</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2759,11 +2945,11 @@
       </c>
       <c r="B63" s="2">
         <f t="shared" si="18"/>
-        <v>-36.437886861451695</v>
+        <v>-31.513848096390657</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" si="6"/>
-        <v>-41.361925626512736</v>
+        <v>-55.149234168683648</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" si="13"/>
@@ -2771,27 +2957,27 @@
       </c>
       <c r="E63" s="6">
         <f t="shared" si="16"/>
-        <v>-44.629407304341612</v>
+        <v>-39.70536853928057</v>
       </c>
       <c r="F63" s="7">
         <f t="shared" si="7"/>
-        <v>-18.629407304341612</v>
-      </c>
-      <c r="G63" s="7">
-        <f t="shared" si="8"/>
-        <v>23.370592695658388</v>
+        <v>-13.70536853928057</v>
+      </c>
+      <c r="G63" s="9">
+        <f t="shared" si="8"/>
+        <v>28.29463146071943</v>
       </c>
       <c r="H63" s="6">
         <f t="shared" si="17"/>
-        <v>-49.553446069402654</v>
+        <v>-63.340754611573566</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="9"/>
-        <v>-23.553446069402654</v>
-      </c>
-      <c r="J63" s="7">
-        <f t="shared" si="10"/>
-        <v>-7.5534460694026535</v>
+        <v>-37.340754611573566</v>
+      </c>
+      <c r="J63" s="9">
+        <f t="shared" si="10"/>
+        <v>-21.340754611573566</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2800,11 +2986,11 @@
       </c>
       <c r="B64" s="2">
         <f t="shared" si="18"/>
-        <v>-36.859203829394588</v>
+        <v>-31.878230338935857</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" si="6"/>
-        <v>-41.840177319853311</v>
+        <v>-55.786903093137752</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="13"/>
@@ -2812,27 +2998,27 @@
       </c>
       <c r="E64" s="6">
         <f t="shared" si="16"/>
-        <v>-44.519648260584368</v>
+        <v>-39.538674770125638</v>
       </c>
       <c r="F64" s="7">
         <f t="shared" si="7"/>
-        <v>-18.519648260584368</v>
-      </c>
-      <c r="G64" s="7">
-        <f t="shared" si="8"/>
-        <v>23.480351739415632</v>
+        <v>-13.538674770125638</v>
+      </c>
+      <c r="G64" s="9">
+        <f t="shared" si="8"/>
+        <v>28.461325229874362</v>
       </c>
       <c r="H64" s="6">
         <f t="shared" si="17"/>
-        <v>-49.500621751043091</v>
+        <v>-63.447347524327533</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="9"/>
-        <v>-23.500621751043091</v>
-      </c>
-      <c r="J64" s="7">
-        <f t="shared" si="10"/>
-        <v>-7.5006217510430915</v>
+        <v>-37.447347524327533</v>
+      </c>
+      <c r="J64" s="9">
+        <f t="shared" si="10"/>
+        <v>-21.447347524327533</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2841,11 +3027,11 @@
       </c>
       <c r="B65" s="2">
         <f t="shared" si="18"/>
-        <v>-37</v>
+        <v>-32</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" si="6"/>
-        <v>-42</v>
+        <v>-56</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" si="13"/>
@@ -2853,27 +3039,27 @@
       </c>
       <c r="E65" s="8">
         <f t="shared" si="16"/>
-        <v>-44.071067811865476</v>
-      </c>
-      <c r="F65" s="7">
-        <f t="shared" si="7"/>
-        <v>-18.071067811865476</v>
-      </c>
-      <c r="G65" s="7">
-        <f t="shared" si="8"/>
-        <v>23.928932188134524</v>
+        <v>-39.071067811865476</v>
+      </c>
+      <c r="F65" s="10">
+        <f t="shared" si="7"/>
+        <v>-13.071067811865476</v>
+      </c>
+      <c r="G65" s="11">
+        <f t="shared" si="8"/>
+        <v>28.928932188134524</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="17"/>
-        <v>-49.071067811865476</v>
-      </c>
-      <c r="I65" s="7">
-        <f t="shared" si="9"/>
-        <v>-23.071067811865476</v>
-      </c>
-      <c r="J65" s="7">
-        <f t="shared" si="10"/>
-        <v>-7.0710678118654755</v>
+        <v>-63.071067811865476</v>
+      </c>
+      <c r="I65" s="10">
+        <f t="shared" si="9"/>
+        <v>-37.071067811865476</v>
+      </c>
+      <c r="J65" s="11">
+        <f t="shared" si="10"/>
+        <v>-21.071067811865476</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +3070,7 @@
     <mergeCell ref="H9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
